--- a/public/OFFICE STRUCTURE.xlsx
+++ b/public/OFFICE STRUCTURE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashbeemorgado/devs/lumen/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32221DA3-CBE0-7C41-A65E-04CA03B3C0A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8480C57B-13BF-5446-A5FA-E55385B0A944}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19960" xr2:uid="{B219841F-3218-4145-B920-CF973D62632C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="275">
   <si>
     <t>010ANG</t>
   </si>
@@ -825,15 +825,6 @@
     <t>066DIG-UNIT-B</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>NAME 2</t>
-  </si>
-  <si>
     <t>unit</t>
   </si>
   <si>
@@ -856,6 +847,9 @@
   </si>
   <si>
     <t>001DAG-A106</t>
+  </si>
+  <si>
+    <t>level_in_number</t>
   </si>
 </sst>
 </file>
@@ -1259,10 +1253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A1E2B0-13DC-394E-86C0-419AFE350589}">
-  <dimension ref="A1:J190"/>
+  <dimension ref="A1:H190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C175" sqref="C175"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1271,118 +1265,116 @@
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="14" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="14" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="14" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="14" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.5" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="19" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="19" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="19" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="19" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="19" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="20" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="18" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="19" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="17" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="20" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="18" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="19" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="17" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="98" max="98" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="19" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="19" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="106" max="106" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="107" max="107" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="16" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="19" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="15" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="19" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="16" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="19" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="15" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="19" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -1398,8 +1390,11 @@
       <c r="E1" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1415,8 +1410,11 @@
       <c r="E2" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1432,8 +1430,11 @@
       <c r="E3" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1449,8 +1450,11 @@
       <c r="E4" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1466,8 +1470,11 @@
       <c r="E5" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1483,8 +1490,11 @@
       <c r="E6" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1500,8 +1510,11 @@
       <c r="E7" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1517,8 +1530,11 @@
       <c r="E8" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1534,8 +1550,11 @@
       <c r="E9" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1551,8 +1570,11 @@
       <c r="E10" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1568,8 +1590,11 @@
       <c r="E11" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1585,8 +1610,11 @@
       <c r="E12" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1602,8 +1630,11 @@
       <c r="E13" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1619,8 +1650,11 @@
       <c r="E14" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1636,9 +1670,12 @@
       <c r="E15" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F15" s="1">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1654,8 +1691,11 @@
       <c r="E16" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1671,8 +1711,11 @@
       <c r="E17" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1688,8 +1731,11 @@
       <c r="E18" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1705,17 +1751,11 @@
       <c r="E19" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1731,18 +1771,11 @@
       <c r="E20" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F20">
-        <f>INDEX($A$2:$A$79,MATCH(LEFT(G20,6),$B$2:$B$79,0))</f>
-        <v>19</v>
-      </c>
-      <c r="G20" t="s">
-        <v>156</v>
-      </c>
-      <c r="H20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1758,18 +1791,11 @@
       <c r="E21" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F21">
-        <f t="shared" ref="F21:F74" si="0">INDEX($A$2:$A$79,MATCH(LEFT(G21,6),$B$2:$B$79,0))</f>
-        <v>20</v>
-      </c>
-      <c r="G21" t="s">
-        <v>158</v>
-      </c>
-      <c r="H21" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1785,18 +1811,11 @@
       <c r="E22" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>160</v>
-      </c>
-      <c r="H22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F22" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1812,18 +1831,11 @@
       <c r="E23" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="G23" t="s">
-        <v>162</v>
-      </c>
-      <c r="H23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F23" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1839,18 +1851,11 @@
       <c r="E24" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="G24" t="s">
-        <v>164</v>
-      </c>
-      <c r="H24" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1866,18 +1871,11 @@
       <c r="E25" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="G25" t="s">
-        <v>166</v>
-      </c>
-      <c r="H25" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1893,18 +1891,11 @@
       <c r="E26" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="G26" t="s">
-        <v>168</v>
-      </c>
-      <c r="H26" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F26" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1920,18 +1911,11 @@
       <c r="E27" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="G27" t="s">
-        <v>170</v>
-      </c>
-      <c r="H27" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F27" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1947,18 +1931,11 @@
       <c r="E28" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="G28" t="s">
-        <v>172</v>
-      </c>
-      <c r="H28" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F28" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1974,18 +1951,11 @@
       <c r="E29" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="G29" t="s">
-        <v>174</v>
-      </c>
-      <c r="H29" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F29" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2001,18 +1971,11 @@
       <c r="E30" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F30">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="G30" t="s">
-        <v>176</v>
-      </c>
-      <c r="H30" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F30" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2028,18 +1991,11 @@
       <c r="E31" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F31">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="G31" t="s">
-        <v>178</v>
-      </c>
-      <c r="H31" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F31" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2055,18 +2011,11 @@
       <c r="E32" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F32">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="G32" t="s">
-        <v>180</v>
-      </c>
-      <c r="H32" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F32" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2082,18 +2031,11 @@
       <c r="E33" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F33">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="G33" t="s">
-        <v>182</v>
-      </c>
-      <c r="H33" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F33" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2109,18 +2051,11 @@
       <c r="E34" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F34">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="G34" t="s">
-        <v>184</v>
-      </c>
-      <c r="H34" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F34" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2136,18 +2071,11 @@
       <c r="E35" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F35">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="G35" t="s">
-        <v>186</v>
-      </c>
-      <c r="H35" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F35" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2163,18 +2091,11 @@
       <c r="E36" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F36">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="G36" t="s">
-        <v>188</v>
-      </c>
-      <c r="H36" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F36" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2190,18 +2111,11 @@
       <c r="E37" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F37">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="G37" t="s">
-        <v>190</v>
-      </c>
-      <c r="H37" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F37" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2217,18 +2131,11 @@
       <c r="E38" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F38">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="G38" t="s">
-        <v>192</v>
-      </c>
-      <c r="H38" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F38" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2244,18 +2151,11 @@
       <c r="E39" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F39">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="G39" t="s">
-        <v>194</v>
-      </c>
-      <c r="H39" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F39" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2271,18 +2171,11 @@
       <c r="E40" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F40">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="G40" t="s">
-        <v>196</v>
-      </c>
-      <c r="H40" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F40" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2298,18 +2191,11 @@
       <c r="E41" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F41">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="G41" t="s">
-        <v>198</v>
-      </c>
-      <c r="H41" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F41" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2325,18 +2211,11 @@
       <c r="E42" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F42">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="G42" t="s">
-        <v>200</v>
-      </c>
-      <c r="H42" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F42" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2352,18 +2231,11 @@
       <c r="E43" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F43">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="G43" t="s">
-        <v>202</v>
-      </c>
-      <c r="H43" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F43" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2379,18 +2251,11 @@
       <c r="E44" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F44">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="G44" t="s">
-        <v>204</v>
-      </c>
-      <c r="H44" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F44" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2406,18 +2271,11 @@
       <c r="E45" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F45">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="G45" t="s">
-        <v>206</v>
-      </c>
-      <c r="H45" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F45" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2433,18 +2291,11 @@
       <c r="E46" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F46">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="G46" t="s">
-        <v>208</v>
-      </c>
-      <c r="H46" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F46" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2460,18 +2311,11 @@
       <c r="E47" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F47">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="G47" t="s">
-        <v>210</v>
-      </c>
-      <c r="H47" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F47" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2487,18 +2331,11 @@
       <c r="E48" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F48">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="G48" t="s">
-        <v>212</v>
-      </c>
-      <c r="H48" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F48" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2514,18 +2351,11 @@
       <c r="E49" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F49">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="G49" t="s">
-        <v>214</v>
-      </c>
-      <c r="H49" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F49" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2541,18 +2371,11 @@
       <c r="E50" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F50">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="G50" t="s">
-        <v>216</v>
-      </c>
-      <c r="H50" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F50" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2568,18 +2391,11 @@
       <c r="E51" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F51">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="G51" t="s">
-        <v>218</v>
-      </c>
-      <c r="H51" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F51" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2595,18 +2411,11 @@
       <c r="E52" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F52">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="G52" t="s">
-        <v>220</v>
-      </c>
-      <c r="H52" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F52" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2622,18 +2431,11 @@
       <c r="E53" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F53">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="G53" t="s">
-        <v>222</v>
-      </c>
-      <c r="H53" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F53" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2649,18 +2451,11 @@
       <c r="E54" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F54">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="G54" t="s">
-        <v>224</v>
-      </c>
-      <c r="H54" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F54" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2676,18 +2471,11 @@
       <c r="E55" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F55">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="G55" t="s">
-        <v>226</v>
-      </c>
-      <c r="H55" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F55" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2703,18 +2491,11 @@
       <c r="E56" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F56">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="G56" t="s">
-        <v>228</v>
-      </c>
-      <c r="H56" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F56" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2730,18 +2511,11 @@
       <c r="E57" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F57">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="G57" t="s">
-        <v>230</v>
-      </c>
-      <c r="H57" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F57" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2757,18 +2531,11 @@
       <c r="E58" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F58">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="G58" t="s">
-        <v>232</v>
-      </c>
-      <c r="H58" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F58" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2784,18 +2551,11 @@
       <c r="E59" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F59">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="G59" t="s">
-        <v>234</v>
-      </c>
-      <c r="H59" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F59" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2811,18 +2571,11 @@
       <c r="E60" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F60">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="G60" t="s">
-        <v>236</v>
-      </c>
-      <c r="H60" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F60" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2838,18 +2591,11 @@
       <c r="E61" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F61">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="G61" t="s">
-        <v>238</v>
-      </c>
-      <c r="H61" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F61" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2865,18 +2611,11 @@
       <c r="E62" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F62">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="G62" t="s">
-        <v>240</v>
-      </c>
-      <c r="H62" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F62" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2892,18 +2631,11 @@
       <c r="E63" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F63">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="G63" t="s">
-        <v>242</v>
-      </c>
-      <c r="H63" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F63" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2919,18 +2651,11 @@
       <c r="E64" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F64">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="G64" t="s">
-        <v>244</v>
-      </c>
-      <c r="H64" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F64" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2946,18 +2671,11 @@
       <c r="E65" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F65">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="G65" t="s">
-        <v>246</v>
-      </c>
-      <c r="H65" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F65" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2973,18 +2691,11 @@
       <c r="E66" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F66">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="G66" t="s">
-        <v>248</v>
-      </c>
-      <c r="H66" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F66" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -3000,18 +2711,11 @@
       <c r="E67" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F67">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="G67" t="s">
-        <v>250</v>
-      </c>
-      <c r="H67" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F67" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -3027,18 +2731,11 @@
       <c r="E68" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F68">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="G68" t="s">
-        <v>252</v>
-      </c>
-      <c r="H68" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F68" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -3054,18 +2751,11 @@
       <c r="E69" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F69">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="G69" t="s">
-        <v>254</v>
-      </c>
-      <c r="H69" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F69" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -3081,18 +2771,11 @@
       <c r="E70" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F70">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="G70" t="s">
-        <v>256</v>
-      </c>
-      <c r="H70" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F70" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -3108,18 +2791,11 @@
       <c r="E71" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F71">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="G71" t="s">
-        <v>258</v>
-      </c>
-      <c r="H71" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F71" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -3135,18 +2811,11 @@
       <c r="E72" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F72">
-        <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="G72" t="s">
-        <v>260</v>
-      </c>
-      <c r="H72" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F72" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -3162,18 +2831,11 @@
       <c r="E73" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F73">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="G73" t="s">
-        <v>262</v>
-      </c>
-      <c r="H73" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F73" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -3189,18 +2851,11 @@
       <c r="E74" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F74">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="G74" t="s">
-        <v>264</v>
-      </c>
-      <c r="H74" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F74" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -3214,10 +2869,13 @@
         <v>156</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F75" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -3231,10 +2889,13 @@
         <v>158</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F76" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -3248,10 +2909,13 @@
         <v>160</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F77" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -3265,10 +2929,13 @@
         <v>162</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F78" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -3282,10 +2949,13 @@
         <v>164</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F79" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -3299,10 +2969,13 @@
         <v>166</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F80" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -3316,10 +2989,13 @@
         <v>168</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F81" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -3333,10 +3009,13 @@
         <v>170</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F82" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -3350,10 +3029,13 @@
         <v>172</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F83" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -3367,10 +3049,13 @@
         <v>174</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F84" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -3384,10 +3069,13 @@
         <v>176</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F85" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -3401,10 +3089,13 @@
         <v>178</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F86" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -3418,10 +3109,13 @@
         <v>180</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F87" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -3435,10 +3129,13 @@
         <v>182</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F88" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -3452,10 +3149,13 @@
         <v>184</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F89" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -3469,10 +3169,13 @@
         <v>186</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F90" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -3486,10 +3189,13 @@
         <v>188</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F91" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -3503,10 +3209,13 @@
         <v>190</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F92" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -3520,10 +3229,13 @@
         <v>192</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F93" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -3537,10 +3249,13 @@
         <v>194</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F94" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -3554,10 +3269,13 @@
         <v>196</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F95" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -3571,10 +3289,13 @@
         <v>198</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F96" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -3588,10 +3309,13 @@
         <v>200</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F97" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -3605,10 +3329,13 @@
         <v>202</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F98" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -3622,10 +3349,13 @@
         <v>204</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F99" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -3639,10 +3369,13 @@
         <v>206</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F100" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -3656,10 +3389,13 @@
         <v>208</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F101" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -3673,10 +3409,13 @@
         <v>210</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F102" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -3690,10 +3429,13 @@
         <v>212</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F103" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -3707,10 +3449,13 @@
         <v>214</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F104" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -3724,10 +3469,13 @@
         <v>216</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F105" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -3741,10 +3489,13 @@
         <v>218</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F106" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -3758,10 +3509,13 @@
         <v>220</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F107" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -3775,10 +3529,13 @@
         <v>222</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F108" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -3792,10 +3549,13 @@
         <v>224</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F109" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -3809,10 +3569,13 @@
         <v>226</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F110" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -3826,10 +3589,13 @@
         <v>228</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F111" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3843,10 +3609,13 @@
         <v>230</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F112" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -3860,10 +3629,13 @@
         <v>232</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F113" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3877,10 +3649,13 @@
         <v>234</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F114" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -3894,10 +3669,13 @@
         <v>236</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F115" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3911,10 +3689,13 @@
         <v>238</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F116" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -3928,10 +3709,13 @@
         <v>240</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F117" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -3945,10 +3729,13 @@
         <v>242</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F118" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -3962,10 +3749,13 @@
         <v>244</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F119" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -3979,10 +3769,13 @@
         <v>246</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F120" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -3996,10 +3789,13 @@
         <v>248</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F121" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -4013,10 +3809,13 @@
         <v>250</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F122" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -4030,10 +3829,13 @@
         <v>252</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F123" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -4047,10 +3849,13 @@
         <v>254</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F124" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -4064,10 +3869,13 @@
         <v>256</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F125" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -4081,10 +3889,13 @@
         <v>258</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F126" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -4098,10 +3909,13 @@
         <v>260</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F127" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -4115,10 +3929,13 @@
         <v>262</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F128" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -4132,10 +3949,13 @@
         <v>264</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F129" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -4149,10 +3969,13 @@
         <v>157</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F130" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -4166,10 +3989,13 @@
         <v>159</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F131" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -4183,10 +4009,13 @@
         <v>161</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F132" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -4200,10 +4029,13 @@
         <v>163</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F133" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -4217,10 +4049,13 @@
         <v>165</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F134" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -4234,10 +4069,13 @@
         <v>167</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F135" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -4251,10 +4089,13 @@
         <v>169</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F136" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -4268,10 +4109,13 @@
         <v>171</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F137" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -4285,10 +4129,13 @@
         <v>173</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F138" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -4302,10 +4149,13 @@
         <v>175</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F139" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -4319,10 +4169,13 @@
         <v>177</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F140" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -4336,10 +4189,13 @@
         <v>179</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F141" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -4353,10 +4209,13 @@
         <v>181</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F142" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -4370,10 +4229,13 @@
         <v>183</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F143" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -4387,10 +4249,13 @@
         <v>185</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F144" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -4404,10 +4269,13 @@
         <v>187</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F145" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -4421,10 +4289,13 @@
         <v>189</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F146" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -4438,10 +4309,13 @@
         <v>191</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F147" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -4455,10 +4329,13 @@
         <v>193</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F148" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -4472,10 +4349,13 @@
         <v>195</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F149" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -4489,10 +4369,13 @@
         <v>197</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F150" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -4506,10 +4389,13 @@
         <v>199</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F151" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -4523,10 +4409,13 @@
         <v>201</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F152" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -4540,10 +4429,13 @@
         <v>203</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F153" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -4557,10 +4449,13 @@
         <v>205</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F154" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -4574,10 +4469,13 @@
         <v>207</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F155" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -4591,10 +4489,13 @@
         <v>209</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F156" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -4608,10 +4509,13 @@
         <v>211</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F157" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -4625,10 +4529,13 @@
         <v>213</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F158" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -4642,10 +4549,13 @@
         <v>215</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F159" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -4659,10 +4569,13 @@
         <v>217</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F160" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -4676,10 +4589,13 @@
         <v>219</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F161" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -4693,10 +4609,13 @@
         <v>221</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F162" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -4710,10 +4629,13 @@
         <v>223</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F163" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -4727,10 +4649,13 @@
         <v>225</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F164" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -4744,10 +4669,13 @@
         <v>227</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F165" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -4761,10 +4689,13 @@
         <v>229</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F166" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -4778,10 +4709,13 @@
         <v>231</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F167" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -4795,10 +4729,13 @@
         <v>233</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F168" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -4812,10 +4749,13 @@
         <v>235</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F169" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -4829,10 +4769,13 @@
         <v>237</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F170" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -4846,10 +4789,13 @@
         <v>239</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F171" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -4863,10 +4809,13 @@
         <v>241</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F172" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -4880,10 +4829,13 @@
         <v>243</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F173" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -4897,10 +4849,13 @@
         <v>245</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F174" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -4914,10 +4869,13 @@
         <v>247</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F175" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -4931,10 +4889,13 @@
         <v>249</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F176" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -4948,10 +4909,13 @@
         <v>251</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F177" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -4965,10 +4929,13 @@
         <v>253</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F178" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -4982,10 +4949,13 @@
         <v>255</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F179" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -4999,10 +4969,13 @@
         <v>257</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F180" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -5016,10 +4989,13 @@
         <v>259</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F181" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -5033,10 +5009,13 @@
         <v>261</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F182" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -5050,10 +5029,13 @@
         <v>263</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F183" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -5067,109 +5049,130 @@
         <v>265</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="F184" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C185" s="1">
         <v>76</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+      <c r="F185" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C186" s="1">
         <v>76</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+      <c r="F186" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C187" s="1">
         <v>76</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+      <c r="F187" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C188" s="1">
         <v>76</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+      <c r="F188" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C189" s="1">
         <v>76</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+      <c r="F189" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C190" s="1">
         <v>76</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
+      </c>
+      <c r="F190" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/public/OFFICE STRUCTURE.xlsx
+++ b/public/OFFICE STRUCTURE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashbeemorgado/devs/lumen/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8480C57B-13BF-5446-A5FA-E55385B0A944}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F100C15-D512-6F42-B819-CD3BF32918DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19960" xr2:uid="{B219841F-3218-4145-B920-CF973D62632C}"/>
+    <workbookView xWindow="760" yWindow="2960" windowWidth="38400" windowHeight="19960" xr2:uid="{B219841F-3218-4145-B920-CF973D62632C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="449">
   <si>
     <t>010ANG</t>
   </si>
@@ -850,6 +850,528 @@
   </si>
   <si>
     <t>level_in_number</t>
+  </si>
+  <si>
+    <t>001DAG-A107</t>
+  </si>
+  <si>
+    <t>001DAG-A108</t>
+  </si>
+  <si>
+    <t>001DAG-A109</t>
+  </si>
+  <si>
+    <t>001DAG-A110</t>
+  </si>
+  <si>
+    <t>001DAG-B101</t>
+  </si>
+  <si>
+    <t>001DAG-B102</t>
+  </si>
+  <si>
+    <t>001DAG-B103</t>
+  </si>
+  <si>
+    <t>001DAG-B104</t>
+  </si>
+  <si>
+    <t>001DAG-B105</t>
+  </si>
+  <si>
+    <t>001DAG-B106</t>
+  </si>
+  <si>
+    <t>001DAG-B107</t>
+  </si>
+  <si>
+    <t>001DAG-B108</t>
+  </si>
+  <si>
+    <t>001DAG-B109</t>
+  </si>
+  <si>
+    <t>001DAG-B110</t>
+  </si>
+  <si>
+    <t>001DAG-A201</t>
+  </si>
+  <si>
+    <t>001DAG-A202</t>
+  </si>
+  <si>
+    <t>001DAG-A203</t>
+  </si>
+  <si>
+    <t>001DAG-A204</t>
+  </si>
+  <si>
+    <t>001DAG-A205</t>
+  </si>
+  <si>
+    <t>001DAG-A206</t>
+  </si>
+  <si>
+    <t>001DAG-A207</t>
+  </si>
+  <si>
+    <t>001DAG-A208</t>
+  </si>
+  <si>
+    <t>001DAG-A209</t>
+  </si>
+  <si>
+    <t>001DAG-A210</t>
+  </si>
+  <si>
+    <t>001DAG-B201</t>
+  </si>
+  <si>
+    <t>001DAG-B202</t>
+  </si>
+  <si>
+    <t>001DAG-B203</t>
+  </si>
+  <si>
+    <t>001DAG-B204</t>
+  </si>
+  <si>
+    <t>001DAG-B205</t>
+  </si>
+  <si>
+    <t>001DAG-B206</t>
+  </si>
+  <si>
+    <t>001DAG-B207</t>
+  </si>
+  <si>
+    <t>001DAG-B208</t>
+  </si>
+  <si>
+    <t>001DAG-B209</t>
+  </si>
+  <si>
+    <t>001DAG-B210</t>
+  </si>
+  <si>
+    <t>001DAG-A301</t>
+  </si>
+  <si>
+    <t>001DAG-A302</t>
+  </si>
+  <si>
+    <t>001DAG-A303</t>
+  </si>
+  <si>
+    <t>001DAG-A304</t>
+  </si>
+  <si>
+    <t>001DAG-A305</t>
+  </si>
+  <si>
+    <t>001DAG-A306</t>
+  </si>
+  <si>
+    <t>001DAG-A307</t>
+  </si>
+  <si>
+    <t>001DAG-A308</t>
+  </si>
+  <si>
+    <t>001DAG-A309</t>
+  </si>
+  <si>
+    <t>001DAG-A310</t>
+  </si>
+  <si>
+    <t>001DAG-B301</t>
+  </si>
+  <si>
+    <t>001DAG-B302</t>
+  </si>
+  <si>
+    <t>001DAG-B303</t>
+  </si>
+  <si>
+    <t>001DAG-B304</t>
+  </si>
+  <si>
+    <t>001DAG-B305</t>
+  </si>
+  <si>
+    <t>001DAG-B306</t>
+  </si>
+  <si>
+    <t>001DAG-B307</t>
+  </si>
+  <si>
+    <t>001DAG-B308</t>
+  </si>
+  <si>
+    <t>001DAG-B309</t>
+  </si>
+  <si>
+    <t>001DAG-B310</t>
+  </si>
+  <si>
+    <t>001DAG-B401</t>
+  </si>
+  <si>
+    <t>001DAG-B402</t>
+  </si>
+  <si>
+    <t>001DAG-B403</t>
+  </si>
+  <si>
+    <t>001DAG-B404</t>
+  </si>
+  <si>
+    <t>001DAG-B405</t>
+  </si>
+  <si>
+    <t>001DAG-B406</t>
+  </si>
+  <si>
+    <t>001DAG-B407</t>
+  </si>
+  <si>
+    <t>001DAG-B408</t>
+  </si>
+  <si>
+    <t>001DAG-B409</t>
+  </si>
+  <si>
+    <t>001DAG-B410</t>
+  </si>
+  <si>
+    <t>001DAG-A401</t>
+  </si>
+  <si>
+    <t>001DAG-A402</t>
+  </si>
+  <si>
+    <t>001DAG-A403</t>
+  </si>
+  <si>
+    <t>001DAG-A404</t>
+  </si>
+  <si>
+    <t>001DAG-A405</t>
+  </si>
+  <si>
+    <t>001DAG-A406</t>
+  </si>
+  <si>
+    <t>001DAG-A407</t>
+  </si>
+  <si>
+    <t>001DAG-A408</t>
+  </si>
+  <si>
+    <t>001DAG-A409</t>
+  </si>
+  <si>
+    <t>001DAG-A410</t>
+  </si>
+  <si>
+    <t>001DAG-A501</t>
+  </si>
+  <si>
+    <t>001DAG-A502</t>
+  </si>
+  <si>
+    <t>001DAG-A503</t>
+  </si>
+  <si>
+    <t>001DAG-A504</t>
+  </si>
+  <si>
+    <t>001DAG-A505</t>
+  </si>
+  <si>
+    <t>001DAG-A506</t>
+  </si>
+  <si>
+    <t>001DAG-A507</t>
+  </si>
+  <si>
+    <t>001DAG-A508</t>
+  </si>
+  <si>
+    <t>001DAG-A509</t>
+  </si>
+  <si>
+    <t>001DAG-A510</t>
+  </si>
+  <si>
+    <t>001DAG-B501</t>
+  </si>
+  <si>
+    <t>001DAG-B502</t>
+  </si>
+  <si>
+    <t>001DAG-B503</t>
+  </si>
+  <si>
+    <t>001DAG-B504</t>
+  </si>
+  <si>
+    <t>001DAG-B505</t>
+  </si>
+  <si>
+    <t>001DAG-B506</t>
+  </si>
+  <si>
+    <t>001DAG-B507</t>
+  </si>
+  <si>
+    <t>001DAG-B508</t>
+  </si>
+  <si>
+    <t>001DAG-B509</t>
+  </si>
+  <si>
+    <t>001DAG-B510</t>
+  </si>
+  <si>
+    <t>001DAG-A601</t>
+  </si>
+  <si>
+    <t>001DAG-A602</t>
+  </si>
+  <si>
+    <t>001DAG-A603</t>
+  </si>
+  <si>
+    <t>001DAG-A604</t>
+  </si>
+  <si>
+    <t>001DAG-A605</t>
+  </si>
+  <si>
+    <t>001DAG-A606</t>
+  </si>
+  <si>
+    <t>001DAG-A607</t>
+  </si>
+  <si>
+    <t>001DAG-A608</t>
+  </si>
+  <si>
+    <t>001DAG-A609</t>
+  </si>
+  <si>
+    <t>001DAG-A610</t>
+  </si>
+  <si>
+    <t>001DAG-B601</t>
+  </si>
+  <si>
+    <t>001DAG-B602</t>
+  </si>
+  <si>
+    <t>001DAG-B603</t>
+  </si>
+  <si>
+    <t>001DAG-B604</t>
+  </si>
+  <si>
+    <t>001DAG-B605</t>
+  </si>
+  <si>
+    <t>001DAG-B606</t>
+  </si>
+  <si>
+    <t>001DAG-B607</t>
+  </si>
+  <si>
+    <t>001DAG-B608</t>
+  </si>
+  <si>
+    <t>001DAG-B609</t>
+  </si>
+  <si>
+    <t>001DAG-B610</t>
+  </si>
+  <si>
+    <t>001DAG-A701</t>
+  </si>
+  <si>
+    <t>001DAG-A702</t>
+  </si>
+  <si>
+    <t>001DAG-A703</t>
+  </si>
+  <si>
+    <t>001DAG-A704</t>
+  </si>
+  <si>
+    <t>001DAG-A705</t>
+  </si>
+  <si>
+    <t>001DAG-A706</t>
+  </si>
+  <si>
+    <t>001DAG-A707</t>
+  </si>
+  <si>
+    <t>001DAG-A708</t>
+  </si>
+  <si>
+    <t>001DAG-A709</t>
+  </si>
+  <si>
+    <t>001DAG-A710</t>
+  </si>
+  <si>
+    <t>001DAG-B701</t>
+  </si>
+  <si>
+    <t>001DAG-B702</t>
+  </si>
+  <si>
+    <t>001DAG-B703</t>
+  </si>
+  <si>
+    <t>001DAG-B704</t>
+  </si>
+  <si>
+    <t>001DAG-B705</t>
+  </si>
+  <si>
+    <t>001DAG-B706</t>
+  </si>
+  <si>
+    <t>001DAG-B707</t>
+  </si>
+  <si>
+    <t>001DAG-B708</t>
+  </si>
+  <si>
+    <t>001DAG-B709</t>
+  </si>
+  <si>
+    <t>001DAG-B710</t>
+  </si>
+  <si>
+    <t>001DAG-A801</t>
+  </si>
+  <si>
+    <t>001DAG-A802</t>
+  </si>
+  <si>
+    <t>001DAG-A803</t>
+  </si>
+  <si>
+    <t>001DAG-A804</t>
+  </si>
+  <si>
+    <t>001DAG-A805</t>
+  </si>
+  <si>
+    <t>001DAG-A806</t>
+  </si>
+  <si>
+    <t>001DAG-A807</t>
+  </si>
+  <si>
+    <t>001DAG-A808</t>
+  </si>
+  <si>
+    <t>001DAG-A809</t>
+  </si>
+  <si>
+    <t>001DAG-A810</t>
+  </si>
+  <si>
+    <t>001DAG-B801</t>
+  </si>
+  <si>
+    <t>001DAG-B802</t>
+  </si>
+  <si>
+    <t>001DAG-B803</t>
+  </si>
+  <si>
+    <t>001DAG-B804</t>
+  </si>
+  <si>
+    <t>001DAG-B805</t>
+  </si>
+  <si>
+    <t>001DAG-B806</t>
+  </si>
+  <si>
+    <t>001DAG-B807</t>
+  </si>
+  <si>
+    <t>001DAG-B808</t>
+  </si>
+  <si>
+    <t>001DAG-B809</t>
+  </si>
+  <si>
+    <t>001DAG-B810</t>
+  </si>
+  <si>
+    <t>001DAG-A901</t>
+  </si>
+  <si>
+    <t>001DAG-A902</t>
+  </si>
+  <si>
+    <t>001DAG-A903</t>
+  </si>
+  <si>
+    <t>001DAG-A904</t>
+  </si>
+  <si>
+    <t>001DAG-A905</t>
+  </si>
+  <si>
+    <t>001DAG-A906</t>
+  </si>
+  <si>
+    <t>001DAG-A907</t>
+  </si>
+  <si>
+    <t>001DAG-A908</t>
+  </si>
+  <si>
+    <t>001DAG-A909</t>
+  </si>
+  <si>
+    <t>001DAG-A910</t>
+  </si>
+  <si>
+    <t>001DAG-B901</t>
+  </si>
+  <si>
+    <t>001DAG-B902</t>
+  </si>
+  <si>
+    <t>001DAG-B903</t>
+  </si>
+  <si>
+    <t>001DAG-B904</t>
+  </si>
+  <si>
+    <t>001DAG-B905</t>
+  </si>
+  <si>
+    <t>001DAG-B906</t>
+  </si>
+  <si>
+    <t>001DAG-B907</t>
+  </si>
+  <si>
+    <t>001DAG-B908</t>
+  </si>
+  <si>
+    <t>001DAG-B909</t>
+  </si>
+  <si>
+    <t>001DAG-B910</t>
   </si>
 </sst>
 </file>
@@ -878,7 +1400,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -891,8 +1413,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -926,18 +1454,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1253,10 +1796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A1E2B0-13DC-394E-86C0-419AFE350589}">
-  <dimension ref="A1:H190"/>
+  <dimension ref="A1:H364"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A345" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="F364" sqref="A1:F364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5175,6 +5718,3486 @@
         <v>6</v>
       </c>
     </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" s="2">
+        <v>190</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C191" s="1">
+        <v>76</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F191" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" s="2">
+        <v>191</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C192" s="1">
+        <v>76</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F192" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" s="2">
+        <v>192</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C193" s="1">
+        <v>76</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F193" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" s="2">
+        <v>193</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C194" s="1">
+        <v>76</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F194" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C195" s="2">
+        <v>131</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F195" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C196" s="2">
+        <v>131</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F196" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C197" s="2">
+        <v>131</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F197" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C198" s="2">
+        <v>131</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F198" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C199" s="2">
+        <v>131</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F199" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C200" s="2">
+        <v>131</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F200" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C201" s="2">
+        <v>131</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F201" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C202" s="2">
+        <v>131</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F202" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C203" s="2">
+        <v>131</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F203" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C204" s="2">
+        <v>131</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F204" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C205" s="1">
+        <v>76</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F205" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C206" s="1">
+        <v>76</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F206" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C207" s="1">
+        <v>76</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F207" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C208" s="1">
+        <v>76</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F208" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C209" s="1">
+        <v>76</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F209" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C210" s="1">
+        <v>76</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F210" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C211" s="1">
+        <v>76</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F211" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C212" s="1">
+        <v>76</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F212" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C213" s="1">
+        <v>76</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F213" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C214" s="1">
+        <v>76</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F214" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C215" s="2">
+        <v>131</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F215" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C216" s="2">
+        <v>131</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F216" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C217" s="2">
+        <v>131</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F217" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C218" s="2">
+        <v>131</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F218" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C219" s="2">
+        <v>131</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F219" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C220" s="2">
+        <v>131</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F220" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C221" s="2">
+        <v>131</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F221" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C222" s="2">
+        <v>131</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F222" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C223" s="2">
+        <v>131</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F223" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C224" s="2">
+        <v>131</v>
+      </c>
+      <c r="D224" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F224" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C225" s="1">
+        <v>76</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F225" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C226" s="1">
+        <v>76</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F226" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C227" s="1">
+        <v>76</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F227" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C228" s="1">
+        <v>76</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F228" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C229" s="1">
+        <v>76</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F229" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C230" s="1">
+        <v>76</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F230" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C231" s="1">
+        <v>76</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F231" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C232" s="1">
+        <v>76</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F232" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C233" s="1">
+        <v>76</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F233" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C234" s="1">
+        <v>76</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F234" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C235" s="2">
+        <v>131</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F235" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C236" s="2">
+        <v>131</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F236" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C237" s="2">
+        <v>131</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F237" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C238" s="2">
+        <v>131</v>
+      </c>
+      <c r="D238" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F238" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C239" s="2">
+        <v>131</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F239" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C240" s="2">
+        <v>131</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F240" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C241" s="2">
+        <v>131</v>
+      </c>
+      <c r="D241" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F241" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C242" s="2">
+        <v>131</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F242" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C243" s="2">
+        <v>131</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F243" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C244" s="2">
+        <v>131</v>
+      </c>
+      <c r="D244" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F244" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C245" s="1">
+        <v>76</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F245" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C246" s="1">
+        <v>76</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F246" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C247" s="1">
+        <v>76</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F247" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C248" s="1">
+        <v>76</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F248" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C249" s="1">
+        <v>76</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F249" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C250" s="1">
+        <v>76</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F250" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C251" s="1">
+        <v>76</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F251" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C252" s="1">
+        <v>76</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F252" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C253" s="1">
+        <v>76</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F253" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C254" s="1">
+        <v>76</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F254" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C255" s="2">
+        <v>131</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F255" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C256" s="2">
+        <v>131</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F256" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C257" s="2">
+        <v>131</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F257" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C258" s="2">
+        <v>131</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F258" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C259" s="2">
+        <v>131</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F259" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C260" s="2">
+        <v>131</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F260" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C261" s="2">
+        <v>131</v>
+      </c>
+      <c r="D261" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F261" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C262" s="2">
+        <v>131</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F262" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C263" s="2">
+        <v>131</v>
+      </c>
+      <c r="D263" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F263" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C264" s="2">
+        <v>131</v>
+      </c>
+      <c r="D264" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F264" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C265" s="1">
+        <v>76</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F265" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C266" s="1">
+        <v>76</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F266" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C267" s="1">
+        <v>76</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F267" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C268" s="1">
+        <v>76</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F268" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C269" s="1">
+        <v>76</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F269" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C270" s="1">
+        <v>76</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F270" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C271" s="1">
+        <v>76</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F271" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C272" s="1">
+        <v>76</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F272" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C273" s="1">
+        <v>76</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F273" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C274" s="1">
+        <v>76</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F274" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C275" s="2">
+        <v>131</v>
+      </c>
+      <c r="D275" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F275" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C276" s="2">
+        <v>131</v>
+      </c>
+      <c r="D276" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F276" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C277" s="2">
+        <v>131</v>
+      </c>
+      <c r="D277" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F277" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C278" s="2">
+        <v>131</v>
+      </c>
+      <c r="D278" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F278" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C279" s="2">
+        <v>131</v>
+      </c>
+      <c r="D279" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F279" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C280" s="2">
+        <v>131</v>
+      </c>
+      <c r="D280" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F280" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C281" s="2">
+        <v>131</v>
+      </c>
+      <c r="D281" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F281" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C282" s="2">
+        <v>131</v>
+      </c>
+      <c r="D282" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F282" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C283" s="2">
+        <v>131</v>
+      </c>
+      <c r="D283" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F283" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C284" s="2">
+        <v>131</v>
+      </c>
+      <c r="D284" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F284" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C285" s="1">
+        <v>76</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F285" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C286" s="1">
+        <v>76</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F286" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C287" s="1">
+        <v>76</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F287" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C288" s="1">
+        <v>76</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F288" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C289" s="1">
+        <v>76</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F289" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C290" s="1">
+        <v>76</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F290" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C291" s="1">
+        <v>76</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F291" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C292" s="1">
+        <v>76</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F292" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C293" s="1">
+        <v>76</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F293" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C294" s="1">
+        <v>76</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F294" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C295" s="2">
+        <v>131</v>
+      </c>
+      <c r="D295" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F295" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C296" s="2">
+        <v>131</v>
+      </c>
+      <c r="D296" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F296" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C297" s="2">
+        <v>131</v>
+      </c>
+      <c r="D297" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F297" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C298" s="2">
+        <v>131</v>
+      </c>
+      <c r="D298" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F298" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C299" s="2">
+        <v>131</v>
+      </c>
+      <c r="D299" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F299" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C300" s="2">
+        <v>131</v>
+      </c>
+      <c r="D300" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F300" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C301" s="2">
+        <v>131</v>
+      </c>
+      <c r="D301" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F301" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C302" s="2">
+        <v>131</v>
+      </c>
+      <c r="D302" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F302" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C303" s="2">
+        <v>131</v>
+      </c>
+      <c r="D303" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F303" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C304" s="2">
+        <v>131</v>
+      </c>
+      <c r="D304" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F304" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C305" s="1">
+        <v>76</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F305" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C306" s="1">
+        <v>76</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F306" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C307" s="1">
+        <v>76</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F307" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C308" s="1">
+        <v>76</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F308" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C309" s="1">
+        <v>76</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F309" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C310" s="1">
+        <v>76</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F310" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C311" s="1">
+        <v>76</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F311" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C312" s="1">
+        <v>76</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F312" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C313" s="1">
+        <v>76</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F313" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C314" s="1">
+        <v>76</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F314" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C315" s="2">
+        <v>131</v>
+      </c>
+      <c r="D315" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F315" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C316" s="2">
+        <v>131</v>
+      </c>
+      <c r="D316" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F316" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C317" s="2">
+        <v>131</v>
+      </c>
+      <c r="D317" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F317" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C318" s="2">
+        <v>131</v>
+      </c>
+      <c r="D318" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F318" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="C319" s="2">
+        <v>131</v>
+      </c>
+      <c r="D319" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F319" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="C320" s="2">
+        <v>131</v>
+      </c>
+      <c r="D320" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F320" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C321" s="2">
+        <v>131</v>
+      </c>
+      <c r="D321" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F321" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C322" s="2">
+        <v>131</v>
+      </c>
+      <c r="D322" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F322" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C323" s="2">
+        <v>131</v>
+      </c>
+      <c r="D323" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F323" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C324" s="2">
+        <v>131</v>
+      </c>
+      <c r="D324" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F324" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C325" s="1">
+        <v>76</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F325" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C326" s="1">
+        <v>76</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F326" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C327" s="1">
+        <v>76</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F327" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C328" s="1">
+        <v>76</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F328" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C329" s="1">
+        <v>76</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F329" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C330" s="1">
+        <v>76</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F330" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C331" s="1">
+        <v>76</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F331" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C332" s="1">
+        <v>76</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F332" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C333" s="1">
+        <v>76</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F333" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C334" s="1">
+        <v>76</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F334" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C335" s="2">
+        <v>131</v>
+      </c>
+      <c r="D335" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F335" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="B336" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C336" s="2">
+        <v>131</v>
+      </c>
+      <c r="D336" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F336" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="B337" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C337" s="2">
+        <v>131</v>
+      </c>
+      <c r="D337" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F337" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="B338" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C338" s="2">
+        <v>131</v>
+      </c>
+      <c r="D338" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F338" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="B339" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C339" s="2">
+        <v>131</v>
+      </c>
+      <c r="D339" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F339" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="B340" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C340" s="2">
+        <v>131</v>
+      </c>
+      <c r="D340" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F340" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="B341" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C341" s="2">
+        <v>131</v>
+      </c>
+      <c r="D341" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F341" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>341</v>
+      </c>
+      <c r="B342" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C342" s="2">
+        <v>131</v>
+      </c>
+      <c r="D342" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F342" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>342</v>
+      </c>
+      <c r="B343" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C343" s="2">
+        <v>131</v>
+      </c>
+      <c r="D343" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F343" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>343</v>
+      </c>
+      <c r="B344" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C344" s="2">
+        <v>131</v>
+      </c>
+      <c r="D344" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F344" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C345" s="1">
+        <v>76</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F345" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>345</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C346" s="1">
+        <v>76</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F346" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>346</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C347" s="1">
+        <v>76</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F347" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>347</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C348" s="1">
+        <v>76</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F348" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>348</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C349" s="1">
+        <v>76</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F349" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>349</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C350" s="1">
+        <v>76</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F350" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>350</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C351" s="1">
+        <v>76</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F351" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>351</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C352" s="1">
+        <v>76</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F352" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>352</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C353" s="1">
+        <v>76</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F353" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>353</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C354" s="1">
+        <v>76</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F354" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>354</v>
+      </c>
+      <c r="B355" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C355" s="2">
+        <v>131</v>
+      </c>
+      <c r="D355" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F355" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>355</v>
+      </c>
+      <c r="B356" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C356" s="2">
+        <v>131</v>
+      </c>
+      <c r="D356" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F356" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>356</v>
+      </c>
+      <c r="B357" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C357" s="2">
+        <v>131</v>
+      </c>
+      <c r="D357" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F357" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>357</v>
+      </c>
+      <c r="B358" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C358" s="2">
+        <v>131</v>
+      </c>
+      <c r="D358" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F358" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>358</v>
+      </c>
+      <c r="B359" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C359" s="2">
+        <v>131</v>
+      </c>
+      <c r="D359" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F359" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>359</v>
+      </c>
+      <c r="B360" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="C360" s="2">
+        <v>131</v>
+      </c>
+      <c r="D360" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F360" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>360</v>
+      </c>
+      <c r="B361" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C361" s="2">
+        <v>131</v>
+      </c>
+      <c r="D361" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F361" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>361</v>
+      </c>
+      <c r="B362" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="C362" s="2">
+        <v>131</v>
+      </c>
+      <c r="D362" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F362" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>362</v>
+      </c>
+      <c r="B363" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C363" s="2">
+        <v>131</v>
+      </c>
+      <c r="D363" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F363" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>363</v>
+      </c>
+      <c r="B364" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C364" s="2">
+        <v>131</v>
+      </c>
+      <c r="D364" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F364" s="1">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/public/OFFICE STRUCTURE.xlsx
+++ b/public/OFFICE STRUCTURE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashbeemorgado/devs/lumen/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nelsontan/Projects/Lumen/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F100C15-D512-6F42-B819-CD3BF32918DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB10CA6-071C-964A-ACBA-DA4563636E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="2960" windowWidth="38400" windowHeight="19960" xr2:uid="{B219841F-3218-4145-B920-CF973D62632C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{B219841F-3218-4145-B920-CF973D62632C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="629">
   <si>
     <t>010ANG</t>
   </si>
@@ -1372,13 +1380,553 @@
   </si>
   <si>
     <t>001DAG-B910</t>
+  </si>
+  <si>
+    <t>038TAR-A101</t>
+  </si>
+  <si>
+    <t>038TAR-A102</t>
+  </si>
+  <si>
+    <t>038TAR-A103</t>
+  </si>
+  <si>
+    <t>038TAR-A104</t>
+  </si>
+  <si>
+    <t>038TAR-A105</t>
+  </si>
+  <si>
+    <t>038TAR-A106</t>
+  </si>
+  <si>
+    <t>038TAR-A107</t>
+  </si>
+  <si>
+    <t>038TAR-A108</t>
+  </si>
+  <si>
+    <t>038TAR-A109</t>
+  </si>
+  <si>
+    <t>038TAR-A110</t>
+  </si>
+  <si>
+    <t>038TAR-B101</t>
+  </si>
+  <si>
+    <t>038TAR-B102</t>
+  </si>
+  <si>
+    <t>038TAR-B103</t>
+  </si>
+  <si>
+    <t>038TAR-B104</t>
+  </si>
+  <si>
+    <t>038TAR-B105</t>
+  </si>
+  <si>
+    <t>038TAR-B106</t>
+  </si>
+  <si>
+    <t>038TAR-B107</t>
+  </si>
+  <si>
+    <t>038TAR-B108</t>
+  </si>
+  <si>
+    <t>038TAR-B109</t>
+  </si>
+  <si>
+    <t>038TAR-B110</t>
+  </si>
+  <si>
+    <t>038TAR-A201</t>
+  </si>
+  <si>
+    <t>038TAR-A202</t>
+  </si>
+  <si>
+    <t>038TAR-A203</t>
+  </si>
+  <si>
+    <t>038TAR-A204</t>
+  </si>
+  <si>
+    <t>038TAR-A205</t>
+  </si>
+  <si>
+    <t>038TAR-A206</t>
+  </si>
+  <si>
+    <t>038TAR-A207</t>
+  </si>
+  <si>
+    <t>038TAR-A208</t>
+  </si>
+  <si>
+    <t>038TAR-A209</t>
+  </si>
+  <si>
+    <t>038TAR-A210</t>
+  </si>
+  <si>
+    <t>038TAR-B201</t>
+  </si>
+  <si>
+    <t>038TAR-B202</t>
+  </si>
+  <si>
+    <t>038TAR-B203</t>
+  </si>
+  <si>
+    <t>038TAR-B204</t>
+  </si>
+  <si>
+    <t>038TAR-B205</t>
+  </si>
+  <si>
+    <t>038TAR-B206</t>
+  </si>
+  <si>
+    <t>038TAR-B207</t>
+  </si>
+  <si>
+    <t>038TAR-B208</t>
+  </si>
+  <si>
+    <t>038TAR-B209</t>
+  </si>
+  <si>
+    <t>038TAR-B210</t>
+  </si>
+  <si>
+    <t>038TAR-A301</t>
+  </si>
+  <si>
+    <t>038TAR-A302</t>
+  </si>
+  <si>
+    <t>038TAR-A303</t>
+  </si>
+  <si>
+    <t>038TAR-A304</t>
+  </si>
+  <si>
+    <t>038TAR-A305</t>
+  </si>
+  <si>
+    <t>038TAR-A306</t>
+  </si>
+  <si>
+    <t>038TAR-A307</t>
+  </si>
+  <si>
+    <t>038TAR-A308</t>
+  </si>
+  <si>
+    <t>038TAR-A309</t>
+  </si>
+  <si>
+    <t>038TAR-A310</t>
+  </si>
+  <si>
+    <t>038TAR-B301</t>
+  </si>
+  <si>
+    <t>038TAR-B302</t>
+  </si>
+  <si>
+    <t>038TAR-B303</t>
+  </si>
+  <si>
+    <t>038TAR-B304</t>
+  </si>
+  <si>
+    <t>038TAR-B305</t>
+  </si>
+  <si>
+    <t>038TAR-B306</t>
+  </si>
+  <si>
+    <t>038TAR-B307</t>
+  </si>
+  <si>
+    <t>038TAR-B308</t>
+  </si>
+  <si>
+    <t>038TAR-B309</t>
+  </si>
+  <si>
+    <t>038TAR-B310</t>
+  </si>
+  <si>
+    <t>038TAR-A401</t>
+  </si>
+  <si>
+    <t>038TAR-A402</t>
+  </si>
+  <si>
+    <t>038TAR-A403</t>
+  </si>
+  <si>
+    <t>038TAR-A404</t>
+  </si>
+  <si>
+    <t>038TAR-A405</t>
+  </si>
+  <si>
+    <t>038TAR-A406</t>
+  </si>
+  <si>
+    <t>038TAR-A407</t>
+  </si>
+  <si>
+    <t>038TAR-A408</t>
+  </si>
+  <si>
+    <t>038TAR-A409</t>
+  </si>
+  <si>
+    <t>038TAR-A410</t>
+  </si>
+  <si>
+    <t>038TAR-B401</t>
+  </si>
+  <si>
+    <t>038TAR-B402</t>
+  </si>
+  <si>
+    <t>038TAR-B403</t>
+  </si>
+  <si>
+    <t>038TAR-B404</t>
+  </si>
+  <si>
+    <t>038TAR-B405</t>
+  </si>
+  <si>
+    <t>038TAR-B406</t>
+  </si>
+  <si>
+    <t>038TAR-B407</t>
+  </si>
+  <si>
+    <t>038TAR-B408</t>
+  </si>
+  <si>
+    <t>038TAR-B409</t>
+  </si>
+  <si>
+    <t>038TAR-B410</t>
+  </si>
+  <si>
+    <t>038TAR-A501</t>
+  </si>
+  <si>
+    <t>038TAR-A502</t>
+  </si>
+  <si>
+    <t>038TAR-A503</t>
+  </si>
+  <si>
+    <t>038TAR-A504</t>
+  </si>
+  <si>
+    <t>038TAR-A505</t>
+  </si>
+  <si>
+    <t>038TAR-A506</t>
+  </si>
+  <si>
+    <t>038TAR-A507</t>
+  </si>
+  <si>
+    <t>038TAR-A508</t>
+  </si>
+  <si>
+    <t>038TAR-A509</t>
+  </si>
+  <si>
+    <t>038TAR-A510</t>
+  </si>
+  <si>
+    <t>038TAR-B501</t>
+  </si>
+  <si>
+    <t>038TAR-B502</t>
+  </si>
+  <si>
+    <t>038TAR-B503</t>
+  </si>
+  <si>
+    <t>038TAR-B504</t>
+  </si>
+  <si>
+    <t>038TAR-B505</t>
+  </si>
+  <si>
+    <t>038TAR-B506</t>
+  </si>
+  <si>
+    <t>038TAR-B507</t>
+  </si>
+  <si>
+    <t>038TAR-B508</t>
+  </si>
+  <si>
+    <t>038TAR-B509</t>
+  </si>
+  <si>
+    <t>038TAR-B510</t>
+  </si>
+  <si>
+    <t>038TAR-A601</t>
+  </si>
+  <si>
+    <t>038TAR-A602</t>
+  </si>
+  <si>
+    <t>038TAR-A603</t>
+  </si>
+  <si>
+    <t>038TAR-A604</t>
+  </si>
+  <si>
+    <t>038TAR-A605</t>
+  </si>
+  <si>
+    <t>038TAR-A606</t>
+  </si>
+  <si>
+    <t>038TAR-A607</t>
+  </si>
+  <si>
+    <t>038TAR-A608</t>
+  </si>
+  <si>
+    <t>038TAR-A609</t>
+  </si>
+  <si>
+    <t>038TAR-A610</t>
+  </si>
+  <si>
+    <t>038TAR-B601</t>
+  </si>
+  <si>
+    <t>038TAR-B602</t>
+  </si>
+  <si>
+    <t>038TAR-B603</t>
+  </si>
+  <si>
+    <t>038TAR-B604</t>
+  </si>
+  <si>
+    <t>038TAR-B605</t>
+  </si>
+  <si>
+    <t>038TAR-B606</t>
+  </si>
+  <si>
+    <t>038TAR-B607</t>
+  </si>
+  <si>
+    <t>038TAR-B608</t>
+  </si>
+  <si>
+    <t>038TAR-B609</t>
+  </si>
+  <si>
+    <t>038TAR-B610</t>
+  </si>
+  <si>
+    <t>038TAR-A701</t>
+  </si>
+  <si>
+    <t>038TAR-A702</t>
+  </si>
+  <si>
+    <t>038TAR-A703</t>
+  </si>
+  <si>
+    <t>038TAR-A704</t>
+  </si>
+  <si>
+    <t>038TAR-A705</t>
+  </si>
+  <si>
+    <t>038TAR-A706</t>
+  </si>
+  <si>
+    <t>038TAR-A707</t>
+  </si>
+  <si>
+    <t>038TAR-A708</t>
+  </si>
+  <si>
+    <t>038TAR-A709</t>
+  </si>
+  <si>
+    <t>038TAR-A710</t>
+  </si>
+  <si>
+    <t>038TAR-B701</t>
+  </si>
+  <si>
+    <t>038TAR-B702</t>
+  </si>
+  <si>
+    <t>038TAR-B703</t>
+  </si>
+  <si>
+    <t>038TAR-B704</t>
+  </si>
+  <si>
+    <t>038TAR-B705</t>
+  </si>
+  <si>
+    <t>038TAR-B706</t>
+  </si>
+  <si>
+    <t>038TAR-B707</t>
+  </si>
+  <si>
+    <t>038TAR-B708</t>
+  </si>
+  <si>
+    <t>038TAR-B709</t>
+  </si>
+  <si>
+    <t>038TAR-B710</t>
+  </si>
+  <si>
+    <t>038TAR-A801</t>
+  </si>
+  <si>
+    <t>038TAR-A802</t>
+  </si>
+  <si>
+    <t>038TAR-A803</t>
+  </si>
+  <si>
+    <t>038TAR-A804</t>
+  </si>
+  <si>
+    <t>038TAR-A805</t>
+  </si>
+  <si>
+    <t>038TAR-A806</t>
+  </si>
+  <si>
+    <t>038TAR-A807</t>
+  </si>
+  <si>
+    <t>038TAR-A808</t>
+  </si>
+  <si>
+    <t>038TAR-A809</t>
+  </si>
+  <si>
+    <t>038TAR-A810</t>
+  </si>
+  <si>
+    <t>038TAR-B801</t>
+  </si>
+  <si>
+    <t>038TAR-B802</t>
+  </si>
+  <si>
+    <t>038TAR-B803</t>
+  </si>
+  <si>
+    <t>038TAR-B804</t>
+  </si>
+  <si>
+    <t>038TAR-B805</t>
+  </si>
+  <si>
+    <t>038TAR-B806</t>
+  </si>
+  <si>
+    <t>038TAR-B807</t>
+  </si>
+  <si>
+    <t>038TAR-B808</t>
+  </si>
+  <si>
+    <t>038TAR-B809</t>
+  </si>
+  <si>
+    <t>038TAR-B810</t>
+  </si>
+  <si>
+    <t>038TAR-A901</t>
+  </si>
+  <si>
+    <t>038TAR-A902</t>
+  </si>
+  <si>
+    <t>038TAR-A903</t>
+  </si>
+  <si>
+    <t>038TAR-A904</t>
+  </si>
+  <si>
+    <t>038TAR-A905</t>
+  </si>
+  <si>
+    <t>038TAR-A906</t>
+  </si>
+  <si>
+    <t>038TAR-A907</t>
+  </si>
+  <si>
+    <t>038TAR-A908</t>
+  </si>
+  <si>
+    <t>038TAR-A909</t>
+  </si>
+  <si>
+    <t>038TAR-A910</t>
+  </si>
+  <si>
+    <t>038TAR-B901</t>
+  </si>
+  <si>
+    <t>038TAR-B902</t>
+  </si>
+  <si>
+    <t>038TAR-B903</t>
+  </si>
+  <si>
+    <t>038TAR-B904</t>
+  </si>
+  <si>
+    <t>038TAR-B905</t>
+  </si>
+  <si>
+    <t>038TAR-B906</t>
+  </si>
+  <si>
+    <t>038TAR-B907</t>
+  </si>
+  <si>
+    <t>038TAR-B908</t>
+  </si>
+  <si>
+    <t>038TAR-B909</t>
+  </si>
+  <si>
+    <t>038TAR-B910</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1395,6 +1943,14 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1472,7 +2028,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1481,6 +2037,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1796,10 +2354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A1E2B0-13DC-394E-86C0-419AFE350589}">
-  <dimension ref="A1:H364"/>
+  <dimension ref="A1:H544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A345" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F364" sqref="A1:F364"/>
+    <sheetView tabSelected="1" topLeftCell="A436" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D459" sqref="D459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1808,6 +2366,7 @@
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="7"/>
     <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
@@ -9198,6 +9757,3606 @@
         <v>6</v>
       </c>
     </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>364</v>
+      </c>
+      <c r="B365" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C365" s="1">
+        <v>82</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F365" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>365</v>
+      </c>
+      <c r="B366" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C366" s="1">
+        <v>82</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F366" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>366</v>
+      </c>
+      <c r="B367" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C367" s="1">
+        <v>82</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F367" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>367</v>
+      </c>
+      <c r="B368" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="C368" s="1">
+        <v>82</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F368" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>368</v>
+      </c>
+      <c r="B369" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="C369" s="1">
+        <v>82</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F369" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>369</v>
+      </c>
+      <c r="B370" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="C370" s="1">
+        <v>82</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F370" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>370</v>
+      </c>
+      <c r="B371" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="C371" s="1">
+        <v>82</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F371" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>371</v>
+      </c>
+      <c r="B372" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C372" s="1">
+        <v>82</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F372" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>372</v>
+      </c>
+      <c r="B373" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="C373" s="1">
+        <v>82</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F373" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>373</v>
+      </c>
+      <c r="B374" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="C374" s="1">
+        <v>82</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F374" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>374</v>
+      </c>
+      <c r="B375" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="C375" s="1">
+        <v>82</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F375" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>375</v>
+      </c>
+      <c r="B376" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C376" s="1">
+        <v>137</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F376" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>376</v>
+      </c>
+      <c r="B377" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C377" s="1">
+        <v>137</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F377" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>377</v>
+      </c>
+      <c r="B378" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="C378" s="1">
+        <v>137</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F378" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>378</v>
+      </c>
+      <c r="B379" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C379" s="1">
+        <v>137</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F379" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>379</v>
+      </c>
+      <c r="B380" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C380" s="1">
+        <v>137</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F380" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>380</v>
+      </c>
+      <c r="B381" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C381" s="1">
+        <v>137</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F381" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>381</v>
+      </c>
+      <c r="B382" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="C382" s="1">
+        <v>137</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F382" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>382</v>
+      </c>
+      <c r="B383" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C383" s="1">
+        <v>137</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F383" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>383</v>
+      </c>
+      <c r="B384" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C384" s="1">
+        <v>137</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F384" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>384</v>
+      </c>
+      <c r="B385" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C385" s="1">
+        <v>82</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F385" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>385</v>
+      </c>
+      <c r="B386" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C386" s="1">
+        <v>82</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F386" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>386</v>
+      </c>
+      <c r="B387" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C387" s="1">
+        <v>82</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F387" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>387</v>
+      </c>
+      <c r="B388" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C388" s="1">
+        <v>82</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F388" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>388</v>
+      </c>
+      <c r="B389" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C389" s="1">
+        <v>82</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F389" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>389</v>
+      </c>
+      <c r="B390" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="C390" s="1">
+        <v>82</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F390" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>390</v>
+      </c>
+      <c r="B391" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C391" s="1">
+        <v>82</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F391" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>391</v>
+      </c>
+      <c r="B392" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C392" s="1">
+        <v>82</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F392" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>392</v>
+      </c>
+      <c r="B393" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C393" s="1">
+        <v>82</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F393" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>393</v>
+      </c>
+      <c r="B394" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="C394" s="1">
+        <v>82</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F394" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>394</v>
+      </c>
+      <c r="B395" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C395" s="1">
+        <v>137</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F395" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>395</v>
+      </c>
+      <c r="B396" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C396" s="1">
+        <v>137</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F396" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>396</v>
+      </c>
+      <c r="B397" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C397" s="1">
+        <v>137</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F397" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>397</v>
+      </c>
+      <c r="B398" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C398" s="1">
+        <v>137</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F398" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>398</v>
+      </c>
+      <c r="B399" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C399" s="1">
+        <v>137</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F399" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>399</v>
+      </c>
+      <c r="B400" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C400" s="1">
+        <v>137</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F400" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>400</v>
+      </c>
+      <c r="B401" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="C401" s="1">
+        <v>137</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F401" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>401</v>
+      </c>
+      <c r="B402" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C402" s="1">
+        <v>137</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F402" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>402</v>
+      </c>
+      <c r="B403" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C403" s="1">
+        <v>137</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E403" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F403" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>403</v>
+      </c>
+      <c r="B404" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C404" s="1">
+        <v>137</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F404" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>404</v>
+      </c>
+      <c r="B405" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="C405" s="1">
+        <v>82</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F405" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <v>405</v>
+      </c>
+      <c r="B406" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="C406" s="1">
+        <v>82</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F406" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <v>406</v>
+      </c>
+      <c r="B407" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C407" s="1">
+        <v>82</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F407" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A408">
+        <v>407</v>
+      </c>
+      <c r="B408" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C408" s="1">
+        <v>82</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F408" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A409">
+        <v>408</v>
+      </c>
+      <c r="B409" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="C409" s="1">
+        <v>82</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F409" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A410">
+        <v>409</v>
+      </c>
+      <c r="B410" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="C410" s="1">
+        <v>82</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F410" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A411">
+        <v>410</v>
+      </c>
+      <c r="B411" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="C411" s="1">
+        <v>82</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F411" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A412">
+        <v>411</v>
+      </c>
+      <c r="B412" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C412" s="1">
+        <v>82</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F412" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A413">
+        <v>412</v>
+      </c>
+      <c r="B413" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="C413" s="1">
+        <v>82</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F413" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A414">
+        <v>413</v>
+      </c>
+      <c r="B414" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="C414" s="1">
+        <v>82</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F414" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A415">
+        <v>414</v>
+      </c>
+      <c r="B415" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="C415" s="1">
+        <v>137</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F415" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A416">
+        <v>415</v>
+      </c>
+      <c r="B416" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="C416" s="1">
+        <v>137</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F416" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A417">
+        <v>416</v>
+      </c>
+      <c r="B417" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="C417" s="1">
+        <v>137</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F417" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A418">
+        <v>417</v>
+      </c>
+      <c r="B418" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="C418" s="1">
+        <v>137</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F418" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A419">
+        <v>418</v>
+      </c>
+      <c r="B419" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="C419" s="1">
+        <v>137</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F419" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A420">
+        <v>419</v>
+      </c>
+      <c r="B420" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C420" s="1">
+        <v>137</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F420" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A421">
+        <v>420</v>
+      </c>
+      <c r="B421" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="C421" s="1">
+        <v>137</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F421" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A422">
+        <v>421</v>
+      </c>
+      <c r="B422" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C422" s="1">
+        <v>137</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F422" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A423">
+        <v>422</v>
+      </c>
+      <c r="B423" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C423" s="1">
+        <v>137</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F423" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A424">
+        <v>423</v>
+      </c>
+      <c r="B424" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C424" s="1">
+        <v>137</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F424" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A425">
+        <v>424</v>
+      </c>
+      <c r="B425" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="C425" s="1">
+        <v>82</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F425" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A426">
+        <v>425</v>
+      </c>
+      <c r="B426" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C426" s="1">
+        <v>82</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F426" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A427">
+        <v>426</v>
+      </c>
+      <c r="B427" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="C427" s="1">
+        <v>82</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F427" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A428">
+        <v>427</v>
+      </c>
+      <c r="B428" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="C428" s="1">
+        <v>82</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F428" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A429">
+        <v>428</v>
+      </c>
+      <c r="B429" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C429" s="1">
+        <v>82</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F429" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A430">
+        <v>429</v>
+      </c>
+      <c r="B430" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="C430" s="1">
+        <v>82</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E430" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F430" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A431">
+        <v>430</v>
+      </c>
+      <c r="B431" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="C431" s="1">
+        <v>82</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F431" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A432">
+        <v>431</v>
+      </c>
+      <c r="B432" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="C432" s="1">
+        <v>82</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F432" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A433">
+        <v>432</v>
+      </c>
+      <c r="B433" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="C433" s="1">
+        <v>82</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F433" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A434">
+        <v>433</v>
+      </c>
+      <c r="B434" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C434" s="1">
+        <v>82</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E434" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F434" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A435">
+        <v>434</v>
+      </c>
+      <c r="B435" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="C435" s="1">
+        <v>137</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F435" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A436">
+        <v>435</v>
+      </c>
+      <c r="B436" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C436" s="1">
+        <v>137</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E436" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F436" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A437">
+        <v>436</v>
+      </c>
+      <c r="B437" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C437" s="1">
+        <v>137</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F437" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A438">
+        <v>437</v>
+      </c>
+      <c r="B438" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="C438" s="1">
+        <v>137</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E438" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F438" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A439">
+        <v>438</v>
+      </c>
+      <c r="B439" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="C439" s="1">
+        <v>137</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F439" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A440">
+        <v>439</v>
+      </c>
+      <c r="B440" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="C440" s="1">
+        <v>137</v>
+      </c>
+      <c r="D440" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E440" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F440" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A441">
+        <v>440</v>
+      </c>
+      <c r="B441" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="C441" s="1">
+        <v>137</v>
+      </c>
+      <c r="D441" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F441" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A442">
+        <v>441</v>
+      </c>
+      <c r="B442" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C442" s="1">
+        <v>137</v>
+      </c>
+      <c r="D442" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E442" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F442" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A443">
+        <v>442</v>
+      </c>
+      <c r="B443" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="C443" s="1">
+        <v>137</v>
+      </c>
+      <c r="D443" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="E443" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F443" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A444">
+        <v>443</v>
+      </c>
+      <c r="B444" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="C444" s="1">
+        <v>137</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F444" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A445">
+        <v>444</v>
+      </c>
+      <c r="B445" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="C445" s="1">
+        <v>82</v>
+      </c>
+      <c r="D445" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F445" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A446">
+        <v>445</v>
+      </c>
+      <c r="B446" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="C446" s="1">
+        <v>82</v>
+      </c>
+      <c r="D446" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E446" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F446" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A447">
+        <v>446</v>
+      </c>
+      <c r="B447" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="C447" s="1">
+        <v>82</v>
+      </c>
+      <c r="D447" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F447" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A448">
+        <v>447</v>
+      </c>
+      <c r="B448" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C448" s="1">
+        <v>82</v>
+      </c>
+      <c r="D448" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E448" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F448" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A449">
+        <v>448</v>
+      </c>
+      <c r="B449" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="C449" s="1">
+        <v>82</v>
+      </c>
+      <c r="D449" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E449" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F449" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A450">
+        <v>449</v>
+      </c>
+      <c r="B450" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="C450" s="1">
+        <v>82</v>
+      </c>
+      <c r="D450" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E450" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F450" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A451">
+        <v>450</v>
+      </c>
+      <c r="B451" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C451" s="1">
+        <v>82</v>
+      </c>
+      <c r="D451" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E451" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F451" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A452">
+        <v>451</v>
+      </c>
+      <c r="B452" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="C452" s="1">
+        <v>82</v>
+      </c>
+      <c r="D452" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E452" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F452" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A453">
+        <v>452</v>
+      </c>
+      <c r="B453" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="C453" s="1">
+        <v>82</v>
+      </c>
+      <c r="D453" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E453" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F453" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A454">
+        <v>453</v>
+      </c>
+      <c r="B454" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="C454" s="1">
+        <v>82</v>
+      </c>
+      <c r="D454" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E454" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F454" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A455">
+        <v>454</v>
+      </c>
+      <c r="B455" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="C455" s="1">
+        <v>137</v>
+      </c>
+      <c r="D455" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E455" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F455" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A456">
+        <v>455</v>
+      </c>
+      <c r="B456" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="C456" s="1">
+        <v>137</v>
+      </c>
+      <c r="D456" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E456" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F456" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A457">
+        <v>456</v>
+      </c>
+      <c r="B457" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C457" s="1">
+        <v>137</v>
+      </c>
+      <c r="D457" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E457" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F457" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A458">
+        <v>457</v>
+      </c>
+      <c r="B458" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="C458" s="1">
+        <v>137</v>
+      </c>
+      <c r="D458" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E458" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F458" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A459">
+        <v>458</v>
+      </c>
+      <c r="B459" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="C459" s="1">
+        <v>137</v>
+      </c>
+      <c r="D459" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="E459" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F459" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A460">
+        <v>459</v>
+      </c>
+      <c r="B460" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C460" s="1">
+        <v>137</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E460" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F460" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A461">
+        <v>460</v>
+      </c>
+      <c r="B461" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="C461" s="1">
+        <v>137</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E461" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F461" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A462">
+        <v>461</v>
+      </c>
+      <c r="B462" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C462" s="1">
+        <v>137</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E462" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F462" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A463">
+        <v>462</v>
+      </c>
+      <c r="B463" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="C463" s="1">
+        <v>137</v>
+      </c>
+      <c r="D463" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E463" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F463" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A464">
+        <v>463</v>
+      </c>
+      <c r="B464" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="C464" s="1">
+        <v>137</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E464" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F464" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A465">
+        <v>464</v>
+      </c>
+      <c r="B465" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C465" s="1">
+        <v>82</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E465" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F465" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A466">
+        <v>465</v>
+      </c>
+      <c r="B466" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="C466" s="1">
+        <v>82</v>
+      </c>
+      <c r="D466" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="E466" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F466" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A467">
+        <v>466</v>
+      </c>
+      <c r="B467" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="C467" s="1">
+        <v>82</v>
+      </c>
+      <c r="D467" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="E467" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F467" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A468">
+        <v>467</v>
+      </c>
+      <c r="B468" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="C468" s="1">
+        <v>82</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E468" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F468" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A469">
+        <v>468</v>
+      </c>
+      <c r="B469" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="C469" s="1">
+        <v>82</v>
+      </c>
+      <c r="D469" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E469" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F469" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A470">
+        <v>469</v>
+      </c>
+      <c r="B470" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="C470" s="1">
+        <v>82</v>
+      </c>
+      <c r="D470" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E470" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F470" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A471">
+        <v>470</v>
+      </c>
+      <c r="B471" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="C471" s="1">
+        <v>82</v>
+      </c>
+      <c r="D471" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E471" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F471" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A472">
+        <v>471</v>
+      </c>
+      <c r="B472" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="C472" s="1">
+        <v>82</v>
+      </c>
+      <c r="D472" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E472" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F472" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A473">
+        <v>472</v>
+      </c>
+      <c r="B473" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C473" s="1">
+        <v>82</v>
+      </c>
+      <c r="D473" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E473" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F473" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A474">
+        <v>473</v>
+      </c>
+      <c r="B474" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C474" s="1">
+        <v>82</v>
+      </c>
+      <c r="D474" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="E474" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F474" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A475">
+        <v>474</v>
+      </c>
+      <c r="B475" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="C475" s="1">
+        <v>137</v>
+      </c>
+      <c r="D475" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="E475" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F475" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A476">
+        <v>475</v>
+      </c>
+      <c r="B476" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="C476" s="1">
+        <v>137</v>
+      </c>
+      <c r="D476" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E476" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F476" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A477">
+        <v>476</v>
+      </c>
+      <c r="B477" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="C477" s="1">
+        <v>137</v>
+      </c>
+      <c r="D477" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F477" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A478">
+        <v>477</v>
+      </c>
+      <c r="B478" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="C478" s="1">
+        <v>137</v>
+      </c>
+      <c r="D478" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E478" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F478" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A479">
+        <v>478</v>
+      </c>
+      <c r="B479" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="C479" s="1">
+        <v>137</v>
+      </c>
+      <c r="D479" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E479" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F479" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A480">
+        <v>479</v>
+      </c>
+      <c r="B480" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="C480" s="1">
+        <v>137</v>
+      </c>
+      <c r="D480" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E480" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F480" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A481">
+        <v>480</v>
+      </c>
+      <c r="B481" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="C481" s="1">
+        <v>137</v>
+      </c>
+      <c r="D481" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="E481" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F481" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A482">
+        <v>481</v>
+      </c>
+      <c r="B482" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="C482" s="1">
+        <v>137</v>
+      </c>
+      <c r="D482" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E482" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F482" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A483">
+        <v>482</v>
+      </c>
+      <c r="B483" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="C483" s="1">
+        <v>137</v>
+      </c>
+      <c r="D483" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E483" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F483" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A484">
+        <v>483</v>
+      </c>
+      <c r="B484" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="C484" s="1">
+        <v>137</v>
+      </c>
+      <c r="D484" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E484" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F484" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A485">
+        <v>484</v>
+      </c>
+      <c r="B485" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="C485" s="1">
+        <v>82</v>
+      </c>
+      <c r="D485" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E485" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F485" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A486">
+        <v>485</v>
+      </c>
+      <c r="B486" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="C486" s="1">
+        <v>82</v>
+      </c>
+      <c r="D486" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E486" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F486" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A487">
+        <v>486</v>
+      </c>
+      <c r="B487" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C487" s="1">
+        <v>82</v>
+      </c>
+      <c r="D487" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E487" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F487" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A488">
+        <v>487</v>
+      </c>
+      <c r="B488" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="C488" s="1">
+        <v>82</v>
+      </c>
+      <c r="D488" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="E488" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F488" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A489">
+        <v>488</v>
+      </c>
+      <c r="B489" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="C489" s="1">
+        <v>82</v>
+      </c>
+      <c r="D489" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E489" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F489" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A490">
+        <v>489</v>
+      </c>
+      <c r="B490" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="C490" s="1">
+        <v>82</v>
+      </c>
+      <c r="D490" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="E490" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F490" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A491">
+        <v>490</v>
+      </c>
+      <c r="B491" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="C491" s="1">
+        <v>82</v>
+      </c>
+      <c r="D491" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="E491" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F491" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A492">
+        <v>491</v>
+      </c>
+      <c r="B492" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="C492" s="1">
+        <v>82</v>
+      </c>
+      <c r="D492" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="E492" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F492" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A493">
+        <v>492</v>
+      </c>
+      <c r="B493" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="C493" s="1">
+        <v>82</v>
+      </c>
+      <c r="D493" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E493" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F493" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A494">
+        <v>493</v>
+      </c>
+      <c r="B494" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="C494" s="1">
+        <v>82</v>
+      </c>
+      <c r="D494" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E494" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F494" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A495">
+        <v>494</v>
+      </c>
+      <c r="B495" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="C495" s="1">
+        <v>137</v>
+      </c>
+      <c r="D495" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E495" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F495" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A496">
+        <v>495</v>
+      </c>
+      <c r="B496" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="C496" s="1">
+        <v>137</v>
+      </c>
+      <c r="D496" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E496" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F496" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A497">
+        <v>496</v>
+      </c>
+      <c r="B497" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="C497" s="1">
+        <v>137</v>
+      </c>
+      <c r="D497" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E497" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F497" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A498">
+        <v>497</v>
+      </c>
+      <c r="B498" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="C498" s="1">
+        <v>137</v>
+      </c>
+      <c r="D498" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F498" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A499">
+        <v>498</v>
+      </c>
+      <c r="B499" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="C499" s="1">
+        <v>137</v>
+      </c>
+      <c r="D499" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E499" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F499" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A500">
+        <v>499</v>
+      </c>
+      <c r="B500" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="C500" s="1">
+        <v>137</v>
+      </c>
+      <c r="D500" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E500" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F500" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A501">
+        <v>500</v>
+      </c>
+      <c r="B501" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="C501" s="1">
+        <v>137</v>
+      </c>
+      <c r="D501" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E501" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F501" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A502">
+        <v>501</v>
+      </c>
+      <c r="B502" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="C502" s="1">
+        <v>137</v>
+      </c>
+      <c r="D502" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E502" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F502" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A503">
+        <v>502</v>
+      </c>
+      <c r="B503" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="C503" s="1">
+        <v>137</v>
+      </c>
+      <c r="D503" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E503" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F503" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A504">
+        <v>503</v>
+      </c>
+      <c r="B504" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="C504" s="1">
+        <v>137</v>
+      </c>
+      <c r="D504" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="E504" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F504" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A505">
+        <v>504</v>
+      </c>
+      <c r="B505" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="C505" s="1">
+        <v>82</v>
+      </c>
+      <c r="D505" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="E505" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F505" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A506">
+        <v>505</v>
+      </c>
+      <c r="B506" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="C506" s="1">
+        <v>82</v>
+      </c>
+      <c r="D506" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="E506" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F506" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A507">
+        <v>506</v>
+      </c>
+      <c r="B507" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="C507" s="1">
+        <v>82</v>
+      </c>
+      <c r="D507" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E507" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F507" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A508">
+        <v>507</v>
+      </c>
+      <c r="B508" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="C508" s="1">
+        <v>82</v>
+      </c>
+      <c r="D508" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E508" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F508" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A509">
+        <v>508</v>
+      </c>
+      <c r="B509" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="C509" s="1">
+        <v>82</v>
+      </c>
+      <c r="D509" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="E509" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F509" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A510">
+        <v>509</v>
+      </c>
+      <c r="B510" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="C510" s="1">
+        <v>82</v>
+      </c>
+      <c r="D510" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E510" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F510" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A511">
+        <v>510</v>
+      </c>
+      <c r="B511" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="C511" s="1">
+        <v>82</v>
+      </c>
+      <c r="D511" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E511" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F511" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A512">
+        <v>511</v>
+      </c>
+      <c r="B512" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="C512" s="1">
+        <v>82</v>
+      </c>
+      <c r="D512" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="E512" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F512" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A513">
+        <v>512</v>
+      </c>
+      <c r="B513" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="C513" s="1">
+        <v>82</v>
+      </c>
+      <c r="D513" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E513" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F513" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A514">
+        <v>513</v>
+      </c>
+      <c r="B514" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="C514" s="1">
+        <v>82</v>
+      </c>
+      <c r="D514" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="E514" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F514" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A515">
+        <v>514</v>
+      </c>
+      <c r="B515" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="C515" s="1">
+        <v>137</v>
+      </c>
+      <c r="D515" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="E515" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F515" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A516">
+        <v>515</v>
+      </c>
+      <c r="B516" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="C516" s="1">
+        <v>137</v>
+      </c>
+      <c r="D516" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="E516" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F516" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A517">
+        <v>516</v>
+      </c>
+      <c r="B517" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="C517" s="1">
+        <v>137</v>
+      </c>
+      <c r="D517" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="E517" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F517" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A518">
+        <v>517</v>
+      </c>
+      <c r="B518" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="C518" s="1">
+        <v>137</v>
+      </c>
+      <c r="D518" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E518" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F518" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A519">
+        <v>518</v>
+      </c>
+      <c r="B519" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="C519" s="1">
+        <v>137</v>
+      </c>
+      <c r="D519" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="E519" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F519" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A520">
+        <v>519</v>
+      </c>
+      <c r="B520" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="C520" s="1">
+        <v>137</v>
+      </c>
+      <c r="D520" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="E520" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F520" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A521">
+        <v>520</v>
+      </c>
+      <c r="B521" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="C521" s="1">
+        <v>137</v>
+      </c>
+      <c r="D521" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="E521" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F521" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A522">
+        <v>521</v>
+      </c>
+      <c r="B522" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="C522" s="1">
+        <v>137</v>
+      </c>
+      <c r="D522" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E522" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F522" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A523">
+        <v>522</v>
+      </c>
+      <c r="B523" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="C523" s="1">
+        <v>137</v>
+      </c>
+      <c r="D523" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="E523" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F523" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A524">
+        <v>523</v>
+      </c>
+      <c r="B524" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="C524" s="1">
+        <v>137</v>
+      </c>
+      <c r="D524" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="E524" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F524" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A525">
+        <v>524</v>
+      </c>
+      <c r="B525" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="C525" s="1">
+        <v>82</v>
+      </c>
+      <c r="D525" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E525" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F525" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A526">
+        <v>525</v>
+      </c>
+      <c r="B526" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="C526" s="1">
+        <v>82</v>
+      </c>
+      <c r="D526" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E526" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F526" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A527">
+        <v>526</v>
+      </c>
+      <c r="B527" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="C527" s="1">
+        <v>82</v>
+      </c>
+      <c r="D527" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E527" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F527" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A528">
+        <v>527</v>
+      </c>
+      <c r="B528" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="C528" s="1">
+        <v>82</v>
+      </c>
+      <c r="D528" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="E528" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F528" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A529">
+        <v>528</v>
+      </c>
+      <c r="B529" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="C529" s="1">
+        <v>82</v>
+      </c>
+      <c r="D529" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="E529" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F529" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A530">
+        <v>529</v>
+      </c>
+      <c r="B530" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="C530" s="1">
+        <v>82</v>
+      </c>
+      <c r="D530" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="E530" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F530" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A531">
+        <v>530</v>
+      </c>
+      <c r="B531" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="C531" s="1">
+        <v>82</v>
+      </c>
+      <c r="D531" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="E531" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F531" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A532">
+        <v>531</v>
+      </c>
+      <c r="B532" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="C532" s="1">
+        <v>82</v>
+      </c>
+      <c r="D532" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E532" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F532" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A533">
+        <v>532</v>
+      </c>
+      <c r="B533" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="C533" s="1">
+        <v>82</v>
+      </c>
+      <c r="D533" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="E533" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F533" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A534">
+        <v>533</v>
+      </c>
+      <c r="B534" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="C534" s="1">
+        <v>82</v>
+      </c>
+      <c r="D534" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="E534" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F534" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A535">
+        <v>534</v>
+      </c>
+      <c r="B535" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="C535" s="1">
+        <v>137</v>
+      </c>
+      <c r="D535" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="E535" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F535" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A536">
+        <v>535</v>
+      </c>
+      <c r="B536" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="C536" s="1">
+        <v>137</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="E536" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F536" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A537">
+        <v>536</v>
+      </c>
+      <c r="B537" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="C537" s="1">
+        <v>137</v>
+      </c>
+      <c r="D537" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E537" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F537" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A538">
+        <v>537</v>
+      </c>
+      <c r="B538" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="C538" s="1">
+        <v>137</v>
+      </c>
+      <c r="D538" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E538" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F538" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A539">
+        <v>538</v>
+      </c>
+      <c r="B539" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="C539" s="1">
+        <v>137</v>
+      </c>
+      <c r="D539" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="E539" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F539" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A540">
+        <v>539</v>
+      </c>
+      <c r="B540" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="C540" s="1">
+        <v>137</v>
+      </c>
+      <c r="D540" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E540" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F540" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A541">
+        <v>540</v>
+      </c>
+      <c r="B541" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="C541" s="1">
+        <v>137</v>
+      </c>
+      <c r="D541" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="E541" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F541" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A542">
+        <v>541</v>
+      </c>
+      <c r="B542" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="C542" s="1">
+        <v>137</v>
+      </c>
+      <c r="D542" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="E542" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F542" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A543">
+        <v>542</v>
+      </c>
+      <c r="B543" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="C543" s="1">
+        <v>137</v>
+      </c>
+      <c r="D543" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E543" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F543" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A544">
+        <v>542</v>
+      </c>
+      <c r="B544" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="C544" s="1">
+        <v>137</v>
+      </c>
+      <c r="D544" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E544" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F544" s="1">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/public/OFFICE STRUCTURE.xlsx
+++ b/public/OFFICE STRUCTURE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nelsontan/Projects/Lumen/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB10CA6-071C-964A-ACBA-DA4563636E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2ECAE0E-775A-2D43-B704-119D432B55A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{B219841F-3218-4145-B920-CF973D62632C}"/>
+    <workbookView xWindow="35460" yWindow="2760" windowWidth="35840" windowHeight="21100" xr2:uid="{B219841F-3218-4145-B920-CF973D62632C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2356,14 +2356,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A1E2B0-13DC-394E-86C0-419AFE350589}">
   <dimension ref="A1:H544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A436" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D459" sqref="D459"/>
+    <sheetView tabSelected="1" topLeftCell="A507" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D538" sqref="D538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="8" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="7"/>
@@ -13339,7 +13339,7 @@
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A544">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B544" s="6" t="s">
         <v>628</v>

--- a/public/OFFICE STRUCTURE.xlsx
+++ b/public/OFFICE STRUCTURE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nelsontan/Projects/Lumen/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2ECAE0E-775A-2D43-B704-119D432B55A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB67AFAB-B725-3544-94CE-0F5909B5AF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35460" yWindow="2760" windowWidth="35840" windowHeight="21100" xr2:uid="{B219841F-3218-4145-B920-CF973D62632C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="738">
   <si>
     <t>010ANG</t>
   </si>
@@ -1920,6 +1920,333 @@
   </si>
   <si>
     <t>038TAR-B910</t>
+  </si>
+  <si>
+    <t>002TAL-A101</t>
+  </si>
+  <si>
+    <t>002TAL-A102</t>
+  </si>
+  <si>
+    <t>002TAL-A102A</t>
+  </si>
+  <si>
+    <t>002TAL-A103</t>
+  </si>
+  <si>
+    <t>002TAL-A103A</t>
+  </si>
+  <si>
+    <t>002TAL-A103M</t>
+  </si>
+  <si>
+    <t>002TAL-A104</t>
+  </si>
+  <si>
+    <t>002TAL-A105</t>
+  </si>
+  <si>
+    <t>002TAL-A106</t>
+  </si>
+  <si>
+    <t>002TAL-A107</t>
+  </si>
+  <si>
+    <t>002TAL-A107A</t>
+  </si>
+  <si>
+    <t>002TAL-A108</t>
+  </si>
+  <si>
+    <t>002TAL-A109.7</t>
+  </si>
+  <si>
+    <t>002TAL-A110.8</t>
+  </si>
+  <si>
+    <t>002TAL-A2</t>
+  </si>
+  <si>
+    <t>002TAL-A211</t>
+  </si>
+  <si>
+    <t>002TAL-A212</t>
+  </si>
+  <si>
+    <t>002TAL-A213</t>
+  </si>
+  <si>
+    <t>002TAL-A214</t>
+  </si>
+  <si>
+    <t>002TAL-A215</t>
+  </si>
+  <si>
+    <t>002TAL-A215A</t>
+  </si>
+  <si>
+    <t>002TAL-A216</t>
+  </si>
+  <si>
+    <t>002TAL-A217</t>
+  </si>
+  <si>
+    <t>002TAL-A217.7</t>
+  </si>
+  <si>
+    <t>002TAL-A218</t>
+  </si>
+  <si>
+    <t>002TAL-A3</t>
+  </si>
+  <si>
+    <t>002TAL-A321</t>
+  </si>
+  <si>
+    <t>002TAL-A322</t>
+  </si>
+  <si>
+    <t>002TAL-A322A</t>
+  </si>
+  <si>
+    <t>002TAL-A323</t>
+  </si>
+  <si>
+    <t>002TAL-A324</t>
+  </si>
+  <si>
+    <t>002TAL-A325A</t>
+  </si>
+  <si>
+    <t>002TAL-A326</t>
+  </si>
+  <si>
+    <t>002TAL-A326A</t>
+  </si>
+  <si>
+    <t>002TAL-A327</t>
+  </si>
+  <si>
+    <t>002TAL-A328</t>
+  </si>
+  <si>
+    <t>002TAL-A328A</t>
+  </si>
+  <si>
+    <t>002TAL-A329.3</t>
+  </si>
+  <si>
+    <t>002TAL-A329.7</t>
+  </si>
+  <si>
+    <t>002TAL-A431</t>
+  </si>
+  <si>
+    <t>002TAL-A431A</t>
+  </si>
+  <si>
+    <t>002TAL-A432</t>
+  </si>
+  <si>
+    <t>002TAL-A433</t>
+  </si>
+  <si>
+    <t>002TAL-A434</t>
+  </si>
+  <si>
+    <t>002TAL-A435</t>
+  </si>
+  <si>
+    <t>002TAL-A436</t>
+  </si>
+  <si>
+    <t>002TAL-A437</t>
+  </si>
+  <si>
+    <t>002TAL-A437.7</t>
+  </si>
+  <si>
+    <t>002TAL-A438</t>
+  </si>
+  <si>
+    <t>002TAL-A438.8</t>
+  </si>
+  <si>
+    <t>002TAL-A439.6</t>
+  </si>
+  <si>
+    <t>002TAL-A541</t>
+  </si>
+  <si>
+    <t>002TAL-A541A</t>
+  </si>
+  <si>
+    <t>002TAL-A542</t>
+  </si>
+  <si>
+    <t>002TAL-A543</t>
+  </si>
+  <si>
+    <t>002TAL-A544</t>
+  </si>
+  <si>
+    <t>002TAL-A545</t>
+  </si>
+  <si>
+    <t>002TAL-A545A</t>
+  </si>
+  <si>
+    <t>002TAL-A546</t>
+  </si>
+  <si>
+    <t>002TAL-A546A</t>
+  </si>
+  <si>
+    <t>002TAL-A547</t>
+  </si>
+  <si>
+    <t>002TAL-A548.8</t>
+  </si>
+  <si>
+    <t>002TAL-A548</t>
+  </si>
+  <si>
+    <t>002TAL-A549.1</t>
+  </si>
+  <si>
+    <t>002TAL-A550</t>
+  </si>
+  <si>
+    <t>002TAL-B101</t>
+  </si>
+  <si>
+    <t>002TAL-B102</t>
+  </si>
+  <si>
+    <t>002TAL-B103</t>
+  </si>
+  <si>
+    <t>002TAL-B104</t>
+  </si>
+  <si>
+    <t>002TAL-B105</t>
+  </si>
+  <si>
+    <t>002TAL-B106</t>
+  </si>
+  <si>
+    <t>002TAL-B109.1</t>
+  </si>
+  <si>
+    <t>002TAL-B110.7</t>
+  </si>
+  <si>
+    <t>002TAL-B110.8</t>
+  </si>
+  <si>
+    <t>002TAL-A651</t>
+  </si>
+  <si>
+    <t>002TAL-B322</t>
+  </si>
+  <si>
+    <t>002TAL-B322B</t>
+  </si>
+  <si>
+    <t>002TAL-B323</t>
+  </si>
+  <si>
+    <t>002TAL-B323B</t>
+  </si>
+  <si>
+    <t>002TAL-B324</t>
+  </si>
+  <si>
+    <t>002TAL-B324B</t>
+  </si>
+  <si>
+    <t>002TAL-B325B</t>
+  </si>
+  <si>
+    <t>002TAL-B326</t>
+  </si>
+  <si>
+    <t>002TAL-B326B</t>
+  </si>
+  <si>
+    <t>002TAL-B327</t>
+  </si>
+  <si>
+    <t>002TAL-B329.5</t>
+  </si>
+  <si>
+    <t>002TAL-B330.6A</t>
+  </si>
+  <si>
+    <t>002TAL-B432</t>
+  </si>
+  <si>
+    <t>002TAL-B433</t>
+  </si>
+  <si>
+    <t>002TAL-B436</t>
+  </si>
+  <si>
+    <t>002TAL-B437</t>
+  </si>
+  <si>
+    <t>002TAL-B542</t>
+  </si>
+  <si>
+    <t>002TAL-B543</t>
+  </si>
+  <si>
+    <t>002TAL-B544</t>
+  </si>
+  <si>
+    <t>002TAL-B545</t>
+  </si>
+  <si>
+    <t>002TAL-B546</t>
+  </si>
+  <si>
+    <t>002TAL-B547</t>
+  </si>
+  <si>
+    <t>002TAL-B547B</t>
+  </si>
+  <si>
+    <t>002TAL-B211</t>
+  </si>
+  <si>
+    <t>002TAL-B212</t>
+  </si>
+  <si>
+    <t>002TAL-B213</t>
+  </si>
+  <si>
+    <t>002TAL-B214</t>
+  </si>
+  <si>
+    <t>002TAL-B215</t>
+  </si>
+  <si>
+    <t>002TAL-B219.1</t>
+  </si>
+  <si>
+    <t>002TAL-B431</t>
+  </si>
+  <si>
+    <t>002TAL-B438</t>
+  </si>
+  <si>
+    <t>002TAL-B440.8</t>
+  </si>
+  <si>
+    <t>002TAL-B325</t>
+  </si>
+  <si>
+    <t>002TAL-B328</t>
   </si>
 </sst>
 </file>
@@ -1976,7 +2303,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2023,12 +2350,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2039,6 +2375,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2354,16 +2691,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A1E2B0-13DC-394E-86C0-419AFE350589}">
-  <dimension ref="A1:H544"/>
+  <dimension ref="A1:H653"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A507" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D538" sqref="D538"/>
+    <sheetView tabSelected="1" topLeftCell="A525" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="I538" sqref="I538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="8" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="7"/>
@@ -13357,6 +13694,2186 @@
         <v>6</v>
       </c>
     </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A545">
+        <v>544</v>
+      </c>
+      <c r="B545" t="s">
+        <v>629</v>
+      </c>
+      <c r="C545">
+        <v>79</v>
+      </c>
+      <c r="D545" t="s">
+        <v>629</v>
+      </c>
+      <c r="E545" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F545" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A546">
+        <v>545</v>
+      </c>
+      <c r="B546" t="s">
+        <v>630</v>
+      </c>
+      <c r="C546">
+        <v>79</v>
+      </c>
+      <c r="D546" t="s">
+        <v>630</v>
+      </c>
+      <c r="E546" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F546" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A547">
+        <v>546</v>
+      </c>
+      <c r="B547" t="s">
+        <v>631</v>
+      </c>
+      <c r="C547">
+        <v>79</v>
+      </c>
+      <c r="D547" t="s">
+        <v>631</v>
+      </c>
+      <c r="E547" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F547" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A548">
+        <v>547</v>
+      </c>
+      <c r="B548" t="s">
+        <v>632</v>
+      </c>
+      <c r="C548">
+        <v>79</v>
+      </c>
+      <c r="D548" t="s">
+        <v>632</v>
+      </c>
+      <c r="E548" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F548" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A549">
+        <v>548</v>
+      </c>
+      <c r="B549" t="s">
+        <v>633</v>
+      </c>
+      <c r="C549">
+        <v>79</v>
+      </c>
+      <c r="D549" t="s">
+        <v>633</v>
+      </c>
+      <c r="E549" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F549" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A550">
+        <v>549</v>
+      </c>
+      <c r="B550" t="s">
+        <v>634</v>
+      </c>
+      <c r="C550">
+        <v>79</v>
+      </c>
+      <c r="D550" t="s">
+        <v>634</v>
+      </c>
+      <c r="E550" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F550" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A551">
+        <v>550</v>
+      </c>
+      <c r="B551" t="s">
+        <v>635</v>
+      </c>
+      <c r="C551">
+        <v>79</v>
+      </c>
+      <c r="D551" t="s">
+        <v>635</v>
+      </c>
+      <c r="E551" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F551" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A552">
+        <v>551</v>
+      </c>
+      <c r="B552" t="s">
+        <v>636</v>
+      </c>
+      <c r="C552">
+        <v>79</v>
+      </c>
+      <c r="D552" t="s">
+        <v>636</v>
+      </c>
+      <c r="E552" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F552" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A553">
+        <v>552</v>
+      </c>
+      <c r="B553" t="s">
+        <v>637</v>
+      </c>
+      <c r="C553">
+        <v>79</v>
+      </c>
+      <c r="D553" t="s">
+        <v>637</v>
+      </c>
+      <c r="E553" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F553" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A554">
+        <v>553</v>
+      </c>
+      <c r="B554" t="s">
+        <v>638</v>
+      </c>
+      <c r="C554">
+        <v>79</v>
+      </c>
+      <c r="D554" t="s">
+        <v>638</v>
+      </c>
+      <c r="E554" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F554" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A555">
+        <v>554</v>
+      </c>
+      <c r="B555" t="s">
+        <v>639</v>
+      </c>
+      <c r="C555">
+        <v>79</v>
+      </c>
+      <c r="D555" t="s">
+        <v>639</v>
+      </c>
+      <c r="E555" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F555" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A556">
+        <v>555</v>
+      </c>
+      <c r="B556" t="s">
+        <v>640</v>
+      </c>
+      <c r="C556">
+        <v>79</v>
+      </c>
+      <c r="D556" t="s">
+        <v>640</v>
+      </c>
+      <c r="E556" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F556" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A557">
+        <v>556</v>
+      </c>
+      <c r="B557" t="s">
+        <v>641</v>
+      </c>
+      <c r="C557">
+        <v>79</v>
+      </c>
+      <c r="D557" t="s">
+        <v>641</v>
+      </c>
+      <c r="E557" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F557" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A558">
+        <v>557</v>
+      </c>
+      <c r="B558" t="s">
+        <v>642</v>
+      </c>
+      <c r="C558">
+        <v>79</v>
+      </c>
+      <c r="D558" t="s">
+        <v>642</v>
+      </c>
+      <c r="E558" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F558" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A559">
+        <v>558</v>
+      </c>
+      <c r="B559" t="s">
+        <v>643</v>
+      </c>
+      <c r="C559">
+        <v>79</v>
+      </c>
+      <c r="D559" t="s">
+        <v>643</v>
+      </c>
+      <c r="E559" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F559" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A560">
+        <v>559</v>
+      </c>
+      <c r="B560" t="s">
+        <v>644</v>
+      </c>
+      <c r="C560">
+        <v>79</v>
+      </c>
+      <c r="D560" t="s">
+        <v>644</v>
+      </c>
+      <c r="E560" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F560" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A561">
+        <v>560</v>
+      </c>
+      <c r="B561" t="s">
+        <v>645</v>
+      </c>
+      <c r="C561">
+        <v>79</v>
+      </c>
+      <c r="D561" t="s">
+        <v>645</v>
+      </c>
+      <c r="E561" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F561" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A562">
+        <v>561</v>
+      </c>
+      <c r="B562" t="s">
+        <v>646</v>
+      </c>
+      <c r="C562">
+        <v>79</v>
+      </c>
+      <c r="D562" t="s">
+        <v>646</v>
+      </c>
+      <c r="E562" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F562" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A563">
+        <v>562</v>
+      </c>
+      <c r="B563" t="s">
+        <v>647</v>
+      </c>
+      <c r="C563">
+        <v>79</v>
+      </c>
+      <c r="D563" t="s">
+        <v>647</v>
+      </c>
+      <c r="E563" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F563" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A564">
+        <v>563</v>
+      </c>
+      <c r="B564" t="s">
+        <v>648</v>
+      </c>
+      <c r="C564">
+        <v>79</v>
+      </c>
+      <c r="D564" t="s">
+        <v>648</v>
+      </c>
+      <c r="E564" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F564" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A565">
+        <v>564</v>
+      </c>
+      <c r="B565" t="s">
+        <v>649</v>
+      </c>
+      <c r="C565">
+        <v>79</v>
+      </c>
+      <c r="D565" t="s">
+        <v>649</v>
+      </c>
+      <c r="E565" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F565" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A566">
+        <v>565</v>
+      </c>
+      <c r="B566" t="s">
+        <v>650</v>
+      </c>
+      <c r="C566">
+        <v>79</v>
+      </c>
+      <c r="D566" t="s">
+        <v>650</v>
+      </c>
+      <c r="E566" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F566" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A567">
+        <v>566</v>
+      </c>
+      <c r="B567" t="s">
+        <v>651</v>
+      </c>
+      <c r="C567">
+        <v>79</v>
+      </c>
+      <c r="D567" t="s">
+        <v>651</v>
+      </c>
+      <c r="E567" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F567" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A568">
+        <v>567</v>
+      </c>
+      <c r="B568" t="s">
+        <v>652</v>
+      </c>
+      <c r="C568">
+        <v>79</v>
+      </c>
+      <c r="D568" t="s">
+        <v>652</v>
+      </c>
+      <c r="E568" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F568" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A569">
+        <v>568</v>
+      </c>
+      <c r="B569" t="s">
+        <v>653</v>
+      </c>
+      <c r="C569">
+        <v>79</v>
+      </c>
+      <c r="D569" t="s">
+        <v>653</v>
+      </c>
+      <c r="E569" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F569" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A570">
+        <v>569</v>
+      </c>
+      <c r="B570" t="s">
+        <v>654</v>
+      </c>
+      <c r="C570">
+        <v>79</v>
+      </c>
+      <c r="D570" t="s">
+        <v>654</v>
+      </c>
+      <c r="E570" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F570" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A571">
+        <v>570</v>
+      </c>
+      <c r="B571" t="s">
+        <v>655</v>
+      </c>
+      <c r="C571">
+        <v>79</v>
+      </c>
+      <c r="D571" t="s">
+        <v>655</v>
+      </c>
+      <c r="E571" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F571" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A572">
+        <v>571</v>
+      </c>
+      <c r="B572" t="s">
+        <v>656</v>
+      </c>
+      <c r="C572">
+        <v>79</v>
+      </c>
+      <c r="D572" t="s">
+        <v>656</v>
+      </c>
+      <c r="E572" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F572" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A573">
+        <v>572</v>
+      </c>
+      <c r="B573" t="s">
+        <v>657</v>
+      </c>
+      <c r="C573">
+        <v>79</v>
+      </c>
+      <c r="D573" t="s">
+        <v>657</v>
+      </c>
+      <c r="E573" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F573" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A574">
+        <v>573</v>
+      </c>
+      <c r="B574" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="C574">
+        <v>79</v>
+      </c>
+      <c r="D574" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="E574" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F574" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A575">
+        <v>574</v>
+      </c>
+      <c r="B575" t="s">
+        <v>659</v>
+      </c>
+      <c r="C575">
+        <v>79</v>
+      </c>
+      <c r="D575" t="s">
+        <v>659</v>
+      </c>
+      <c r="E575" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F575" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A576">
+        <v>575</v>
+      </c>
+      <c r="B576" t="s">
+        <v>660</v>
+      </c>
+      <c r="C576">
+        <v>79</v>
+      </c>
+      <c r="D576" t="s">
+        <v>660</v>
+      </c>
+      <c r="E576" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F576" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A577">
+        <v>576</v>
+      </c>
+      <c r="B577" t="s">
+        <v>661</v>
+      </c>
+      <c r="C577">
+        <v>79</v>
+      </c>
+      <c r="D577" t="s">
+        <v>661</v>
+      </c>
+      <c r="E577" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F577" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A578">
+        <v>577</v>
+      </c>
+      <c r="B578" t="s">
+        <v>662</v>
+      </c>
+      <c r="C578">
+        <v>79</v>
+      </c>
+      <c r="D578" t="s">
+        <v>662</v>
+      </c>
+      <c r="E578" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F578" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A579">
+        <v>578</v>
+      </c>
+      <c r="B579" t="s">
+        <v>663</v>
+      </c>
+      <c r="C579">
+        <v>79</v>
+      </c>
+      <c r="D579" t="s">
+        <v>663</v>
+      </c>
+      <c r="E579" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F579" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A580">
+        <v>579</v>
+      </c>
+      <c r="B580" t="s">
+        <v>664</v>
+      </c>
+      <c r="C580">
+        <v>79</v>
+      </c>
+      <c r="D580" t="s">
+        <v>664</v>
+      </c>
+      <c r="E580" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F580" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A581">
+        <v>580</v>
+      </c>
+      <c r="B581" t="s">
+        <v>665</v>
+      </c>
+      <c r="C581">
+        <v>79</v>
+      </c>
+      <c r="D581" t="s">
+        <v>665</v>
+      </c>
+      <c r="E581" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F581" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A582">
+        <v>581</v>
+      </c>
+      <c r="B582" t="s">
+        <v>666</v>
+      </c>
+      <c r="C582">
+        <v>79</v>
+      </c>
+      <c r="D582" t="s">
+        <v>666</v>
+      </c>
+      <c r="E582" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F582" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A583">
+        <v>582</v>
+      </c>
+      <c r="B583" t="s">
+        <v>667</v>
+      </c>
+      <c r="C583">
+        <v>79</v>
+      </c>
+      <c r="D583" t="s">
+        <v>667</v>
+      </c>
+      <c r="E583" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F583" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A584">
+        <v>583</v>
+      </c>
+      <c r="B584" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C584">
+        <v>79</v>
+      </c>
+      <c r="D584" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="E584" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F584" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A585">
+        <v>584</v>
+      </c>
+      <c r="B585" t="s">
+        <v>669</v>
+      </c>
+      <c r="C585">
+        <v>79</v>
+      </c>
+      <c r="D585" t="s">
+        <v>669</v>
+      </c>
+      <c r="E585" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F585" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A586">
+        <v>585</v>
+      </c>
+      <c r="B586" t="s">
+        <v>670</v>
+      </c>
+      <c r="C586">
+        <v>79</v>
+      </c>
+      <c r="D586" t="s">
+        <v>670</v>
+      </c>
+      <c r="E586" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F586" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A587">
+        <v>586</v>
+      </c>
+      <c r="B587" t="s">
+        <v>671</v>
+      </c>
+      <c r="C587">
+        <v>79</v>
+      </c>
+      <c r="D587" t="s">
+        <v>671</v>
+      </c>
+      <c r="E587" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F587" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A588">
+        <v>587</v>
+      </c>
+      <c r="B588" t="s">
+        <v>672</v>
+      </c>
+      <c r="C588">
+        <v>79</v>
+      </c>
+      <c r="D588" t="s">
+        <v>672</v>
+      </c>
+      <c r="E588" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F588" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A589">
+        <v>588</v>
+      </c>
+      <c r="B589" t="s">
+        <v>673</v>
+      </c>
+      <c r="C589">
+        <v>79</v>
+      </c>
+      <c r="D589" t="s">
+        <v>673</v>
+      </c>
+      <c r="E589" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F589" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A590">
+        <v>589</v>
+      </c>
+      <c r="B590" t="s">
+        <v>674</v>
+      </c>
+      <c r="C590">
+        <v>79</v>
+      </c>
+      <c r="D590" t="s">
+        <v>674</v>
+      </c>
+      <c r="E590" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F590" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A591">
+        <v>590</v>
+      </c>
+      <c r="B591" t="s">
+        <v>675</v>
+      </c>
+      <c r="C591">
+        <v>79</v>
+      </c>
+      <c r="D591" t="s">
+        <v>675</v>
+      </c>
+      <c r="E591" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F591" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A592">
+        <v>591</v>
+      </c>
+      <c r="B592" t="s">
+        <v>676</v>
+      </c>
+      <c r="C592">
+        <v>79</v>
+      </c>
+      <c r="D592" t="s">
+        <v>676</v>
+      </c>
+      <c r="E592" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F592" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A593">
+        <v>592</v>
+      </c>
+      <c r="B593" t="s">
+        <v>677</v>
+      </c>
+      <c r="C593">
+        <v>79</v>
+      </c>
+      <c r="D593" t="s">
+        <v>677</v>
+      </c>
+      <c r="E593" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F593" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A594">
+        <v>593</v>
+      </c>
+      <c r="B594" t="s">
+        <v>678</v>
+      </c>
+      <c r="C594">
+        <v>79</v>
+      </c>
+      <c r="D594" t="s">
+        <v>678</v>
+      </c>
+      <c r="E594" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F594" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A595">
+        <v>594</v>
+      </c>
+      <c r="B595" t="s">
+        <v>679</v>
+      </c>
+      <c r="C595">
+        <v>79</v>
+      </c>
+      <c r="D595" t="s">
+        <v>679</v>
+      </c>
+      <c r="E595" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F595" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A596">
+        <v>595</v>
+      </c>
+      <c r="B596" t="s">
+        <v>680</v>
+      </c>
+      <c r="C596">
+        <v>79</v>
+      </c>
+      <c r="D596" t="s">
+        <v>680</v>
+      </c>
+      <c r="E596" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F596" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A597">
+        <v>596</v>
+      </c>
+      <c r="B597" t="s">
+        <v>681</v>
+      </c>
+      <c r="C597">
+        <v>79</v>
+      </c>
+      <c r="D597" t="s">
+        <v>681</v>
+      </c>
+      <c r="E597" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F597" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A598">
+        <v>597</v>
+      </c>
+      <c r="B598" t="s">
+        <v>682</v>
+      </c>
+      <c r="C598">
+        <v>79</v>
+      </c>
+      <c r="D598" t="s">
+        <v>682</v>
+      </c>
+      <c r="E598" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F598" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A599">
+        <v>598</v>
+      </c>
+      <c r="B599" t="s">
+        <v>683</v>
+      </c>
+      <c r="C599">
+        <v>79</v>
+      </c>
+      <c r="D599" t="s">
+        <v>683</v>
+      </c>
+      <c r="E599" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F599" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A600">
+        <v>599</v>
+      </c>
+      <c r="B600" t="s">
+        <v>684</v>
+      </c>
+      <c r="C600">
+        <v>79</v>
+      </c>
+      <c r="D600" t="s">
+        <v>684</v>
+      </c>
+      <c r="E600" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F600" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A601">
+        <v>600</v>
+      </c>
+      <c r="B601" t="s">
+        <v>685</v>
+      </c>
+      <c r="C601">
+        <v>79</v>
+      </c>
+      <c r="D601" t="s">
+        <v>685</v>
+      </c>
+      <c r="E601" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F601" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A602">
+        <v>601</v>
+      </c>
+      <c r="B602" t="s">
+        <v>686</v>
+      </c>
+      <c r="C602">
+        <v>79</v>
+      </c>
+      <c r="D602" t="s">
+        <v>686</v>
+      </c>
+      <c r="E602" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F602" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A603">
+        <v>602</v>
+      </c>
+      <c r="B603" t="s">
+        <v>687</v>
+      </c>
+      <c r="C603">
+        <v>79</v>
+      </c>
+      <c r="D603" t="s">
+        <v>687</v>
+      </c>
+      <c r="E603" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F603" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A604">
+        <v>603</v>
+      </c>
+      <c r="B604" t="s">
+        <v>688</v>
+      </c>
+      <c r="C604">
+        <v>79</v>
+      </c>
+      <c r="D604" t="s">
+        <v>688</v>
+      </c>
+      <c r="E604" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F604" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A605">
+        <v>604</v>
+      </c>
+      <c r="B605" t="s">
+        <v>689</v>
+      </c>
+      <c r="C605">
+        <v>79</v>
+      </c>
+      <c r="D605" t="s">
+        <v>689</v>
+      </c>
+      <c r="E605" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F605" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="606" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A606">
+        <v>605</v>
+      </c>
+      <c r="B606" t="s">
+        <v>690</v>
+      </c>
+      <c r="C606">
+        <v>79</v>
+      </c>
+      <c r="D606" t="s">
+        <v>690</v>
+      </c>
+      <c r="E606" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F606" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A607">
+        <v>606</v>
+      </c>
+      <c r="B607" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="C607">
+        <v>79</v>
+      </c>
+      <c r="D607" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="E607" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F607" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A608">
+        <v>607</v>
+      </c>
+      <c r="B608" t="s">
+        <v>692</v>
+      </c>
+      <c r="C608">
+        <v>79</v>
+      </c>
+      <c r="D608" t="s">
+        <v>692</v>
+      </c>
+      <c r="E608" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F608" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A609">
+        <v>608</v>
+      </c>
+      <c r="B609" t="s">
+        <v>693</v>
+      </c>
+      <c r="C609">
+        <v>79</v>
+      </c>
+      <c r="D609" t="s">
+        <v>693</v>
+      </c>
+      <c r="E609" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F609" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="610" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A610">
+        <v>609</v>
+      </c>
+      <c r="B610" t="s">
+        <v>694</v>
+      </c>
+      <c r="C610">
+        <v>134</v>
+      </c>
+      <c r="D610" t="s">
+        <v>694</v>
+      </c>
+      <c r="E610" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F610" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A611">
+        <v>610</v>
+      </c>
+      <c r="B611" t="s">
+        <v>695</v>
+      </c>
+      <c r="C611">
+        <v>134</v>
+      </c>
+      <c r="D611" t="s">
+        <v>695</v>
+      </c>
+      <c r="E611" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F611" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A612">
+        <v>611</v>
+      </c>
+      <c r="B612" t="s">
+        <v>696</v>
+      </c>
+      <c r="C612">
+        <v>134</v>
+      </c>
+      <c r="D612" t="s">
+        <v>696</v>
+      </c>
+      <c r="E612" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F612" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A613">
+        <v>612</v>
+      </c>
+      <c r="B613" t="s">
+        <v>697</v>
+      </c>
+      <c r="C613">
+        <v>134</v>
+      </c>
+      <c r="D613" t="s">
+        <v>697</v>
+      </c>
+      <c r="E613" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F613" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="614" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A614">
+        <v>613</v>
+      </c>
+      <c r="B614" t="s">
+        <v>698</v>
+      </c>
+      <c r="C614">
+        <v>134</v>
+      </c>
+      <c r="D614" t="s">
+        <v>698</v>
+      </c>
+      <c r="E614" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F614" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A615">
+        <v>614</v>
+      </c>
+      <c r="B615" t="s">
+        <v>699</v>
+      </c>
+      <c r="C615">
+        <v>134</v>
+      </c>
+      <c r="D615" t="s">
+        <v>699</v>
+      </c>
+      <c r="E615" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F615" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A616">
+        <v>615</v>
+      </c>
+      <c r="B616" t="s">
+        <v>700</v>
+      </c>
+      <c r="C616">
+        <v>134</v>
+      </c>
+      <c r="D616" t="s">
+        <v>700</v>
+      </c>
+      <c r="E616" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F616" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A617">
+        <v>616</v>
+      </c>
+      <c r="B617" t="s">
+        <v>701</v>
+      </c>
+      <c r="C617">
+        <v>134</v>
+      </c>
+      <c r="D617" t="s">
+        <v>701</v>
+      </c>
+      <c r="E617" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F617" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A618">
+        <v>617</v>
+      </c>
+      <c r="B618" t="s">
+        <v>702</v>
+      </c>
+      <c r="C618">
+        <v>134</v>
+      </c>
+      <c r="D618" t="s">
+        <v>702</v>
+      </c>
+      <c r="E618" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F618" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A619">
+        <v>618</v>
+      </c>
+      <c r="B619" t="s">
+        <v>703</v>
+      </c>
+      <c r="C619">
+        <v>134</v>
+      </c>
+      <c r="D619" t="s">
+        <v>703</v>
+      </c>
+      <c r="E619" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F619" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A620">
+        <v>619</v>
+      </c>
+      <c r="B620" t="s">
+        <v>704</v>
+      </c>
+      <c r="C620">
+        <v>134</v>
+      </c>
+      <c r="D620" t="s">
+        <v>704</v>
+      </c>
+      <c r="E620" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F620" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A621">
+        <v>620</v>
+      </c>
+      <c r="B621" t="s">
+        <v>705</v>
+      </c>
+      <c r="C621">
+        <v>134</v>
+      </c>
+      <c r="D621" t="s">
+        <v>705</v>
+      </c>
+      <c r="E621" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F621" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A622">
+        <v>621</v>
+      </c>
+      <c r="B622" t="s">
+        <v>706</v>
+      </c>
+      <c r="C622">
+        <v>134</v>
+      </c>
+      <c r="D622" t="s">
+        <v>706</v>
+      </c>
+      <c r="E622" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F622" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A623">
+        <v>622</v>
+      </c>
+      <c r="B623" t="s">
+        <v>707</v>
+      </c>
+      <c r="C623">
+        <v>134</v>
+      </c>
+      <c r="D623" t="s">
+        <v>707</v>
+      </c>
+      <c r="E623" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F623" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A624">
+        <v>623</v>
+      </c>
+      <c r="B624" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="C624">
+        <v>134</v>
+      </c>
+      <c r="D624" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="E624" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F624" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A625">
+        <v>624</v>
+      </c>
+      <c r="B625" t="s">
+        <v>709</v>
+      </c>
+      <c r="C625">
+        <v>134</v>
+      </c>
+      <c r="D625" t="s">
+        <v>709</v>
+      </c>
+      <c r="E625" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F625" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A626">
+        <v>625</v>
+      </c>
+      <c r="B626" t="s">
+        <v>710</v>
+      </c>
+      <c r="C626">
+        <v>134</v>
+      </c>
+      <c r="D626" t="s">
+        <v>710</v>
+      </c>
+      <c r="E626" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F626" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A627">
+        <v>626</v>
+      </c>
+      <c r="B627" t="s">
+        <v>711</v>
+      </c>
+      <c r="C627">
+        <v>134</v>
+      </c>
+      <c r="D627" t="s">
+        <v>711</v>
+      </c>
+      <c r="E627" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F627" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A628">
+        <v>627</v>
+      </c>
+      <c r="B628" t="s">
+        <v>712</v>
+      </c>
+      <c r="C628">
+        <v>134</v>
+      </c>
+      <c r="D628" t="s">
+        <v>712</v>
+      </c>
+      <c r="E628" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F628" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A629">
+        <v>628</v>
+      </c>
+      <c r="B629" t="s">
+        <v>713</v>
+      </c>
+      <c r="C629">
+        <v>134</v>
+      </c>
+      <c r="D629" t="s">
+        <v>713</v>
+      </c>
+      <c r="E629" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F629" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A630">
+        <v>629</v>
+      </c>
+      <c r="B630" t="s">
+        <v>714</v>
+      </c>
+      <c r="C630">
+        <v>134</v>
+      </c>
+      <c r="D630" t="s">
+        <v>714</v>
+      </c>
+      <c r="E630" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F630" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A631">
+        <v>630</v>
+      </c>
+      <c r="B631" t="s">
+        <v>715</v>
+      </c>
+      <c r="C631">
+        <v>134</v>
+      </c>
+      <c r="D631" t="s">
+        <v>715</v>
+      </c>
+      <c r="E631" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F631" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A632">
+        <v>631</v>
+      </c>
+      <c r="B632" t="s">
+        <v>716</v>
+      </c>
+      <c r="C632">
+        <v>134</v>
+      </c>
+      <c r="D632" t="s">
+        <v>716</v>
+      </c>
+      <c r="E632" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F632" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A633">
+        <v>632</v>
+      </c>
+      <c r="B633" t="s">
+        <v>717</v>
+      </c>
+      <c r="C633">
+        <v>134</v>
+      </c>
+      <c r="D633" t="s">
+        <v>717</v>
+      </c>
+      <c r="E633" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F633" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A634">
+        <v>633</v>
+      </c>
+      <c r="B634" t="s">
+        <v>718</v>
+      </c>
+      <c r="C634">
+        <v>134</v>
+      </c>
+      <c r="D634" t="s">
+        <v>718</v>
+      </c>
+      <c r="E634" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F634" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A635">
+        <v>634</v>
+      </c>
+      <c r="B635" t="s">
+        <v>719</v>
+      </c>
+      <c r="C635">
+        <v>134</v>
+      </c>
+      <c r="D635" t="s">
+        <v>719</v>
+      </c>
+      <c r="E635" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F635" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A636">
+        <v>635</v>
+      </c>
+      <c r="B636" t="s">
+        <v>720</v>
+      </c>
+      <c r="C636">
+        <v>134</v>
+      </c>
+      <c r="D636" t="s">
+        <v>720</v>
+      </c>
+      <c r="E636" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F636" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A637">
+        <v>636</v>
+      </c>
+      <c r="B637" t="s">
+        <v>721</v>
+      </c>
+      <c r="C637">
+        <v>134</v>
+      </c>
+      <c r="D637" t="s">
+        <v>721</v>
+      </c>
+      <c r="E637" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F637" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A638">
+        <v>637</v>
+      </c>
+      <c r="B638" t="s">
+        <v>722</v>
+      </c>
+      <c r="C638">
+        <v>134</v>
+      </c>
+      <c r="D638" t="s">
+        <v>722</v>
+      </c>
+      <c r="E638" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F638" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A639">
+        <v>638</v>
+      </c>
+      <c r="B639" t="s">
+        <v>723</v>
+      </c>
+      <c r="C639">
+        <v>134</v>
+      </c>
+      <c r="D639" t="s">
+        <v>723</v>
+      </c>
+      <c r="E639" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F639" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A640">
+        <v>639</v>
+      </c>
+      <c r="B640" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="C640">
+        <v>134</v>
+      </c>
+      <c r="D640" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="E640" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F640" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A641">
+        <v>640</v>
+      </c>
+      <c r="B641" t="s">
+        <v>725</v>
+      </c>
+      <c r="C641">
+        <v>134</v>
+      </c>
+      <c r="D641" t="s">
+        <v>725</v>
+      </c>
+      <c r="E641" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F641" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A642">
+        <v>641</v>
+      </c>
+      <c r="B642" t="s">
+        <v>726</v>
+      </c>
+      <c r="C642">
+        <v>134</v>
+      </c>
+      <c r="D642" t="s">
+        <v>726</v>
+      </c>
+      <c r="E642" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F642" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A643">
+        <v>642</v>
+      </c>
+      <c r="B643" t="s">
+        <v>727</v>
+      </c>
+      <c r="C643">
+        <v>134</v>
+      </c>
+      <c r="D643" t="s">
+        <v>727</v>
+      </c>
+      <c r="E643" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F643" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A644">
+        <v>643</v>
+      </c>
+      <c r="B644" t="s">
+        <v>728</v>
+      </c>
+      <c r="C644">
+        <v>134</v>
+      </c>
+      <c r="D644" t="s">
+        <v>728</v>
+      </c>
+      <c r="E644" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F644" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A645">
+        <v>644</v>
+      </c>
+      <c r="B645" t="s">
+        <v>729</v>
+      </c>
+      <c r="C645">
+        <v>134</v>
+      </c>
+      <c r="D645" t="s">
+        <v>729</v>
+      </c>
+      <c r="E645" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F645" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A646">
+        <v>645</v>
+      </c>
+      <c r="B646" t="s">
+        <v>730</v>
+      </c>
+      <c r="C646">
+        <v>134</v>
+      </c>
+      <c r="D646" t="s">
+        <v>730</v>
+      </c>
+      <c r="E646" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F646" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A647">
+        <v>646</v>
+      </c>
+      <c r="B647" t="s">
+        <v>731</v>
+      </c>
+      <c r="C647">
+        <v>134</v>
+      </c>
+      <c r="D647" t="s">
+        <v>731</v>
+      </c>
+      <c r="E647" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F647" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="648" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A648">
+        <v>647</v>
+      </c>
+      <c r="B648" t="s">
+        <v>732</v>
+      </c>
+      <c r="C648">
+        <v>134</v>
+      </c>
+      <c r="D648" t="s">
+        <v>732</v>
+      </c>
+      <c r="E648" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F648" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="649" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A649">
+        <v>648</v>
+      </c>
+      <c r="B649" t="s">
+        <v>733</v>
+      </c>
+      <c r="C649">
+        <v>134</v>
+      </c>
+      <c r="D649" t="s">
+        <v>733</v>
+      </c>
+      <c r="E649" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F649" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A650">
+        <v>649</v>
+      </c>
+      <c r="B650" t="s">
+        <v>734</v>
+      </c>
+      <c r="C650">
+        <v>134</v>
+      </c>
+      <c r="D650" t="s">
+        <v>734</v>
+      </c>
+      <c r="E650" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F650" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="651" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A651">
+        <v>650</v>
+      </c>
+      <c r="B651" t="s">
+        <v>735</v>
+      </c>
+      <c r="C651">
+        <v>134</v>
+      </c>
+      <c r="D651" t="s">
+        <v>735</v>
+      </c>
+      <c r="E651" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F651" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A652">
+        <v>651</v>
+      </c>
+      <c r="B652" t="s">
+        <v>736</v>
+      </c>
+      <c r="C652">
+        <v>134</v>
+      </c>
+      <c r="D652" t="s">
+        <v>736</v>
+      </c>
+      <c r="E652" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F652" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A653">
+        <v>652</v>
+      </c>
+      <c r="B653" t="s">
+        <v>737</v>
+      </c>
+      <c r="C653">
+        <v>134</v>
+      </c>
+      <c r="D653" t="s">
+        <v>737</v>
+      </c>
+      <c r="E653" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F653" s="2">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/public/OFFICE STRUCTURE.xlsx
+++ b/public/OFFICE STRUCTURE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nelsontan/Projects/Lumen/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB67AFAB-B725-3544-94CE-0F5909B5AF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F601E755-E4DC-3E46-84E3-ED4FB0896DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35460" yWindow="2760" windowWidth="35840" windowHeight="21100" xr2:uid="{B219841F-3218-4145-B920-CF973D62632C}"/>
+    <workbookView xWindow="35840" yWindow="-7460" windowWidth="21600" windowHeight="37900" xr2:uid="{B219841F-3218-4145-B920-CF973D62632C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="744">
   <si>
     <t>010ANG</t>
   </si>
@@ -2039,9 +2039,6 @@
     <t>002TAL-A329.7</t>
   </si>
   <si>
-    <t>002TAL-A431</t>
-  </si>
-  <si>
     <t>002TAL-A431A</t>
   </si>
   <si>
@@ -2081,42 +2078,18 @@
     <t>002TAL-A541A</t>
   </si>
   <si>
-    <t>002TAL-A542</t>
-  </si>
-  <si>
-    <t>002TAL-A543</t>
-  </si>
-  <si>
-    <t>002TAL-A544</t>
-  </si>
-  <si>
-    <t>002TAL-A545</t>
-  </si>
-  <si>
     <t>002TAL-A545A</t>
   </si>
   <si>
-    <t>002TAL-A546</t>
-  </si>
-  <si>
     <t>002TAL-A546A</t>
   </si>
   <si>
-    <t>002TAL-A547</t>
-  </si>
-  <si>
     <t>002TAL-A548.8</t>
   </si>
   <si>
-    <t>002TAL-A548</t>
-  </si>
-  <si>
     <t>002TAL-A549.1</t>
   </si>
   <si>
-    <t>002TAL-A550</t>
-  </si>
-  <si>
     <t>002TAL-B101</t>
   </si>
   <si>
@@ -2144,12 +2117,6 @@
     <t>002TAL-B110.8</t>
   </si>
   <si>
-    <t>002TAL-A651</t>
-  </si>
-  <si>
-    <t>002TAL-B322</t>
-  </si>
-  <si>
     <t>002TAL-B322B</t>
   </si>
   <si>
@@ -2159,9 +2126,6 @@
     <t>002TAL-B323B</t>
   </si>
   <si>
-    <t>002TAL-B324</t>
-  </si>
-  <si>
     <t>002TAL-B324B</t>
   </si>
   <si>
@@ -2174,9 +2138,6 @@
     <t>002TAL-B326B</t>
   </si>
   <si>
-    <t>002TAL-B327</t>
-  </si>
-  <si>
     <t>002TAL-B329.5</t>
   </si>
   <si>
@@ -2186,54 +2147,15 @@
     <t>002TAL-B432</t>
   </si>
   <si>
-    <t>002TAL-B433</t>
-  </si>
-  <si>
     <t>002TAL-B436</t>
   </si>
   <si>
     <t>002TAL-B437</t>
   </si>
   <si>
-    <t>002TAL-B542</t>
-  </si>
-  <si>
-    <t>002TAL-B543</t>
-  </si>
-  <si>
-    <t>002TAL-B544</t>
-  </si>
-  <si>
-    <t>002TAL-B545</t>
-  </si>
-  <si>
-    <t>002TAL-B546</t>
-  </si>
-  <si>
-    <t>002TAL-B547</t>
-  </si>
-  <si>
     <t>002TAL-B547B</t>
   </si>
   <si>
-    <t>002TAL-B211</t>
-  </si>
-  <si>
-    <t>002TAL-B212</t>
-  </si>
-  <si>
-    <t>002TAL-B213</t>
-  </si>
-  <si>
-    <t>002TAL-B214</t>
-  </si>
-  <si>
-    <t>002TAL-B215</t>
-  </si>
-  <si>
-    <t>002TAL-B219.1</t>
-  </si>
-  <si>
     <t>002TAL-B431</t>
   </si>
   <si>
@@ -2247,6 +2169,102 @@
   </si>
   <si>
     <t>002TAL-B328</t>
+  </si>
+  <si>
+    <t>002TAL-B326M</t>
+  </si>
+  <si>
+    <t>002TAL-B323M</t>
+  </si>
+  <si>
+    <t>002TAL-B432M</t>
+  </si>
+  <si>
+    <t>002TAL-B437M</t>
+  </si>
+  <si>
+    <t>002TAL-B435</t>
+  </si>
+  <si>
+    <t>002TAL-B219.1M</t>
+  </si>
+  <si>
+    <t>002TAL-B215M</t>
+  </si>
+  <si>
+    <t>002TAL-B214M</t>
+  </si>
+  <si>
+    <t>002TAL-B213M</t>
+  </si>
+  <si>
+    <t>002TAL-B212M</t>
+  </si>
+  <si>
+    <t>002TAL-B211M</t>
+  </si>
+  <si>
+    <t>002TAL-B547M</t>
+  </si>
+  <si>
+    <t>002TAL-B546M</t>
+  </si>
+  <si>
+    <t>002TAL-B545M</t>
+  </si>
+  <si>
+    <t>002TAL-B544M</t>
+  </si>
+  <si>
+    <t>002TAL-B543M</t>
+  </si>
+  <si>
+    <t>002TAL-B542M</t>
+  </si>
+  <si>
+    <t>002TAL-B436M</t>
+  </si>
+  <si>
+    <t>002TAL-B433M</t>
+  </si>
+  <si>
+    <t>002TAL-B327M</t>
+  </si>
+  <si>
+    <t>002TAL-B324M</t>
+  </si>
+  <si>
+    <t>002TAL-B322M</t>
+  </si>
+  <si>
+    <t>002TAL-A651M</t>
+  </si>
+  <si>
+    <t>002TAL-A550M</t>
+  </si>
+  <si>
+    <t>002TAL-A548M</t>
+  </si>
+  <si>
+    <t>002TAL-A547M</t>
+  </si>
+  <si>
+    <t>002TAL-A546M</t>
+  </si>
+  <si>
+    <t>002TAL-A545M</t>
+  </si>
+  <si>
+    <t>002TAL-A544M</t>
+  </si>
+  <si>
+    <t>002TAL-A543M</t>
+  </si>
+  <si>
+    <t>002TAL-A542M</t>
+  </si>
+  <si>
+    <t>002TAL-A431M</t>
   </si>
 </sst>
 </file>
@@ -2691,10 +2709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A1E2B0-13DC-394E-86C0-419AFE350589}">
-  <dimension ref="A1:H653"/>
+  <dimension ref="A1:H659"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A525" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="I538" sqref="I538"/>
+    <sheetView tabSelected="1" topLeftCell="A594" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="E638" sqref="E638"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14479,13 +14497,13 @@
         <v>583</v>
       </c>
       <c r="B584" s="8" t="s">
-        <v>668</v>
+        <v>743</v>
       </c>
       <c r="C584">
         <v>79</v>
       </c>
       <c r="D584" s="8" t="s">
-        <v>668</v>
+        <v>743</v>
       </c>
       <c r="E584" s="2" t="s">
         <v>268</v>
@@ -14499,13 +14517,13 @@
         <v>584</v>
       </c>
       <c r="B585" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C585">
         <v>79</v>
       </c>
       <c r="D585" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E585" s="2" t="s">
         <v>268</v>
@@ -14519,13 +14537,13 @@
         <v>585</v>
       </c>
       <c r="B586" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C586">
         <v>79</v>
       </c>
       <c r="D586" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E586" s="2" t="s">
         <v>268</v>
@@ -14539,13 +14557,13 @@
         <v>586</v>
       </c>
       <c r="B587" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C587">
         <v>79</v>
       </c>
       <c r="D587" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E587" s="2" t="s">
         <v>268</v>
@@ -14559,13 +14577,13 @@
         <v>587</v>
       </c>
       <c r="B588" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C588">
         <v>79</v>
       </c>
       <c r="D588" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E588" s="2" t="s">
         <v>268</v>
@@ -14579,13 +14597,13 @@
         <v>588</v>
       </c>
       <c r="B589" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C589">
         <v>79</v>
       </c>
       <c r="D589" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E589" s="2" t="s">
         <v>268</v>
@@ -14599,13 +14617,13 @@
         <v>589</v>
       </c>
       <c r="B590" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C590">
         <v>79</v>
       </c>
       <c r="D590" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E590" s="2" t="s">
         <v>268</v>
@@ -14619,13 +14637,13 @@
         <v>590</v>
       </c>
       <c r="B591" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C591">
         <v>79</v>
       </c>
       <c r="D591" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E591" s="2" t="s">
         <v>268</v>
@@ -14639,13 +14657,13 @@
         <v>591</v>
       </c>
       <c r="B592" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C592">
         <v>79</v>
       </c>
       <c r="D592" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E592" s="2" t="s">
         <v>268</v>
@@ -14659,13 +14677,13 @@
         <v>592</v>
       </c>
       <c r="B593" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C593">
         <v>79</v>
       </c>
       <c r="D593" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E593" s="2" t="s">
         <v>268</v>
@@ -14679,13 +14697,13 @@
         <v>593</v>
       </c>
       <c r="B594" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C594">
         <v>79</v>
       </c>
       <c r="D594" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E594" s="2" t="s">
         <v>268</v>
@@ -14699,13 +14717,13 @@
         <v>594</v>
       </c>
       <c r="B595" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C595">
         <v>79</v>
       </c>
       <c r="D595" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E595" s="2" t="s">
         <v>268</v>
@@ -14719,13 +14737,13 @@
         <v>595</v>
       </c>
       <c r="B596" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C596">
         <v>79</v>
       </c>
       <c r="D596" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E596" s="2" t="s">
         <v>268</v>
@@ -14739,13 +14757,13 @@
         <v>596</v>
       </c>
       <c r="B597" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C597">
         <v>79</v>
       </c>
       <c r="D597" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E597" s="2" t="s">
         <v>268</v>
@@ -14759,13 +14777,13 @@
         <v>597</v>
       </c>
       <c r="B598" t="s">
-        <v>682</v>
+        <v>742</v>
       </c>
       <c r="C598">
         <v>79</v>
       </c>
       <c r="D598" t="s">
-        <v>682</v>
+        <v>742</v>
       </c>
       <c r="E598" s="2" t="s">
         <v>268</v>
@@ -14779,13 +14797,13 @@
         <v>598</v>
       </c>
       <c r="B599" t="s">
-        <v>683</v>
+        <v>741</v>
       </c>
       <c r="C599">
         <v>79</v>
       </c>
       <c r="D599" t="s">
-        <v>683</v>
+        <v>741</v>
       </c>
       <c r="E599" s="2" t="s">
         <v>268</v>
@@ -14799,13 +14817,13 @@
         <v>599</v>
       </c>
       <c r="B600" t="s">
-        <v>684</v>
+        <v>740</v>
       </c>
       <c r="C600">
         <v>79</v>
       </c>
       <c r="D600" t="s">
-        <v>684</v>
+        <v>740</v>
       </c>
       <c r="E600" s="2" t="s">
         <v>268</v>
@@ -14819,13 +14837,13 @@
         <v>600</v>
       </c>
       <c r="B601" t="s">
-        <v>685</v>
+        <v>739</v>
       </c>
       <c r="C601">
         <v>79</v>
       </c>
       <c r="D601" t="s">
-        <v>685</v>
+        <v>739</v>
       </c>
       <c r="E601" s="2" t="s">
         <v>268</v>
@@ -14839,13 +14857,13 @@
         <v>601</v>
       </c>
       <c r="B602" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="C602">
         <v>79</v>
       </c>
       <c r="D602" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="E602" s="2" t="s">
         <v>268</v>
@@ -14859,13 +14877,13 @@
         <v>602</v>
       </c>
       <c r="B603" t="s">
-        <v>687</v>
+        <v>738</v>
       </c>
       <c r="C603">
         <v>79</v>
       </c>
       <c r="D603" t="s">
-        <v>687</v>
+        <v>738</v>
       </c>
       <c r="E603" s="2" t="s">
         <v>268</v>
@@ -14879,13 +14897,13 @@
         <v>603</v>
       </c>
       <c r="B604" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="C604">
         <v>79</v>
       </c>
       <c r="D604" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="E604" s="2" t="s">
         <v>268</v>
@@ -14899,13 +14917,13 @@
         <v>604</v>
       </c>
       <c r="B605" t="s">
-        <v>689</v>
+        <v>737</v>
       </c>
       <c r="C605">
         <v>79</v>
       </c>
       <c r="D605" t="s">
-        <v>689</v>
+        <v>737</v>
       </c>
       <c r="E605" s="2" t="s">
         <v>268</v>
@@ -14919,13 +14937,13 @@
         <v>605</v>
       </c>
       <c r="B606" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C606">
         <v>79</v>
       </c>
       <c r="D606" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="E606" s="2" t="s">
         <v>268</v>
@@ -14939,13 +14957,13 @@
         <v>606</v>
       </c>
       <c r="B607" s="8" t="s">
-        <v>691</v>
+        <v>736</v>
       </c>
       <c r="C607">
         <v>79</v>
       </c>
       <c r="D607" s="8" t="s">
-        <v>691</v>
+        <v>736</v>
       </c>
       <c r="E607" s="2" t="s">
         <v>268</v>
@@ -14959,13 +14977,13 @@
         <v>607</v>
       </c>
       <c r="B608" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="C608">
         <v>79</v>
       </c>
       <c r="D608" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="E608" s="2" t="s">
         <v>268</v>
@@ -14979,13 +14997,13 @@
         <v>608</v>
       </c>
       <c r="B609" t="s">
-        <v>693</v>
+        <v>735</v>
       </c>
       <c r="C609">
         <v>79</v>
       </c>
       <c r="D609" t="s">
-        <v>693</v>
+        <v>735</v>
       </c>
       <c r="E609" s="2" t="s">
         <v>268</v>
@@ -14999,13 +15017,13 @@
         <v>609</v>
       </c>
       <c r="B610" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="C610">
         <v>134</v>
       </c>
       <c r="D610" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="E610" s="2" t="s">
         <v>268</v>
@@ -15019,13 +15037,13 @@
         <v>610</v>
       </c>
       <c r="B611" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="C611">
         <v>134</v>
       </c>
       <c r="D611" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="E611" s="2" t="s">
         <v>268</v>
@@ -15039,13 +15057,13 @@
         <v>611</v>
       </c>
       <c r="B612" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="C612">
         <v>134</v>
       </c>
       <c r="D612" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="E612" s="2" t="s">
         <v>268</v>
@@ -15059,13 +15077,13 @@
         <v>612</v>
       </c>
       <c r="B613" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="C613">
         <v>134</v>
       </c>
       <c r="D613" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="E613" s="2" t="s">
         <v>268</v>
@@ -15079,13 +15097,13 @@
         <v>613</v>
       </c>
       <c r="B614" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="C614">
         <v>134</v>
       </c>
       <c r="D614" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="E614" s="2" t="s">
         <v>268</v>
@@ -15099,13 +15117,13 @@
         <v>614</v>
       </c>
       <c r="B615" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="C615">
         <v>134</v>
       </c>
       <c r="D615" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="E615" s="2" t="s">
         <v>268</v>
@@ -15119,13 +15137,13 @@
         <v>615</v>
       </c>
       <c r="B616" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="C616">
         <v>134</v>
       </c>
       <c r="D616" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="E616" s="2" t="s">
         <v>268</v>
@@ -15139,13 +15157,13 @@
         <v>616</v>
       </c>
       <c r="B617" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="C617">
         <v>134</v>
       </c>
       <c r="D617" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="E617" s="2" t="s">
         <v>268</v>
@@ -15159,13 +15177,13 @@
         <v>617</v>
       </c>
       <c r="B618" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="C618">
         <v>134</v>
       </c>
       <c r="D618" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="E618" s="2" t="s">
         <v>268</v>
@@ -15179,13 +15197,13 @@
         <v>618</v>
       </c>
       <c r="B619" t="s">
-        <v>703</v>
+        <v>734</v>
       </c>
       <c r="C619">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="D619" t="s">
-        <v>703</v>
+        <v>734</v>
       </c>
       <c r="E619" s="2" t="s">
         <v>268</v>
@@ -15199,13 +15217,13 @@
         <v>619</v>
       </c>
       <c r="B620" t="s">
-        <v>704</v>
+        <v>733</v>
       </c>
       <c r="C620">
         <v>134</v>
       </c>
       <c r="D620" t="s">
-        <v>704</v>
+        <v>733</v>
       </c>
       <c r="E620" s="2" t="s">
         <v>268</v>
@@ -15219,13 +15237,13 @@
         <v>620</v>
       </c>
       <c r="B621" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="C621">
         <v>134</v>
       </c>
       <c r="D621" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="E621" s="2" t="s">
         <v>268</v>
@@ -15239,13 +15257,13 @@
         <v>621</v>
       </c>
       <c r="B622" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="C622">
         <v>134</v>
       </c>
       <c r="D622" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="E622" s="2" t="s">
         <v>268</v>
@@ -15259,13 +15277,13 @@
         <v>622</v>
       </c>
       <c r="B623" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="C623">
         <v>134</v>
       </c>
       <c r="D623" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="E623" s="2" t="s">
         <v>268</v>
@@ -15279,13 +15297,13 @@
         <v>623</v>
       </c>
       <c r="B624" s="8" t="s">
-        <v>708</v>
+        <v>732</v>
       </c>
       <c r="C624">
         <v>134</v>
       </c>
       <c r="D624" s="8" t="s">
-        <v>708</v>
+        <v>732</v>
       </c>
       <c r="E624" s="2" t="s">
         <v>268</v>
@@ -15299,13 +15317,13 @@
         <v>624</v>
       </c>
       <c r="B625" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="C625">
         <v>134</v>
       </c>
       <c r="D625" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="E625" s="2" t="s">
         <v>268</v>
@@ -15319,13 +15337,13 @@
         <v>625</v>
       </c>
       <c r="B626" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="C626">
         <v>134</v>
       </c>
       <c r="D626" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="E626" s="2" t="s">
         <v>268</v>
@@ -15339,13 +15357,13 @@
         <v>626</v>
       </c>
       <c r="B627" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C627">
         <v>134</v>
       </c>
       <c r="D627" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E627" s="2" t="s">
         <v>268</v>
@@ -15359,13 +15377,13 @@
         <v>627</v>
       </c>
       <c r="B628" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="C628">
         <v>134</v>
       </c>
       <c r="D628" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="E628" s="2" t="s">
         <v>268</v>
@@ -15379,13 +15397,13 @@
         <v>628</v>
       </c>
       <c r="B629" t="s">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="C629">
         <v>134</v>
       </c>
       <c r="D629" t="s">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="E629" s="2" t="s">
         <v>268</v>
@@ -15399,13 +15417,13 @@
         <v>629</v>
       </c>
       <c r="B630" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="C630">
         <v>134</v>
       </c>
       <c r="D630" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="E630" s="2" t="s">
         <v>268</v>
@@ -15419,13 +15437,13 @@
         <v>630</v>
       </c>
       <c r="B631" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="C631">
         <v>134</v>
       </c>
       <c r="D631" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="E631" s="2" t="s">
         <v>268</v>
@@ -15439,13 +15457,13 @@
         <v>631</v>
       </c>
       <c r="B632" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C632">
         <v>134</v>
       </c>
       <c r="D632" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E632" s="2" t="s">
         <v>268</v>
@@ -15459,13 +15477,13 @@
         <v>632</v>
       </c>
       <c r="B633" t="s">
-        <v>717</v>
+        <v>730</v>
       </c>
       <c r="C633">
         <v>134</v>
       </c>
       <c r="D633" t="s">
-        <v>717</v>
+        <v>730</v>
       </c>
       <c r="E633" s="2" t="s">
         <v>268</v>
@@ -15479,13 +15497,13 @@
         <v>633</v>
       </c>
       <c r="B634" t="s">
-        <v>718</v>
+        <v>729</v>
       </c>
       <c r="C634">
         <v>134</v>
       </c>
       <c r="D634" t="s">
-        <v>718</v>
+        <v>729</v>
       </c>
       <c r="E634" s="2" t="s">
         <v>268</v>
@@ -15499,13 +15517,13 @@
         <v>634</v>
       </c>
       <c r="B635" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C635">
         <v>134</v>
       </c>
       <c r="D635" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="E635" s="2" t="s">
         <v>268</v>
@@ -15519,13 +15537,13 @@
         <v>635</v>
       </c>
       <c r="B636" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="C636">
         <v>134</v>
       </c>
       <c r="D636" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="E636" s="2" t="s">
         <v>268</v>
@@ -15539,13 +15557,13 @@
         <v>636</v>
       </c>
       <c r="B637" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="C637">
         <v>134</v>
       </c>
       <c r="D637" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="E637" s="2" t="s">
         <v>268</v>
@@ -15559,13 +15577,13 @@
         <v>637</v>
       </c>
       <c r="B638" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="C638">
         <v>134</v>
       </c>
       <c r="D638" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="E638" s="2" t="s">
         <v>268</v>
@@ -15579,13 +15597,13 @@
         <v>638</v>
       </c>
       <c r="B639" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C639">
         <v>134</v>
       </c>
       <c r="D639" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E639" s="2" t="s">
         <v>268</v>
@@ -15619,13 +15637,13 @@
         <v>640</v>
       </c>
       <c r="B641" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C641">
         <v>134</v>
       </c>
       <c r="D641" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E641" s="2" t="s">
         <v>268</v>
@@ -15639,13 +15657,13 @@
         <v>641</v>
       </c>
       <c r="B642" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
       <c r="C642">
         <v>134</v>
       </c>
       <c r="D642" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
       <c r="E642" s="2" t="s">
         <v>268</v>
@@ -15659,13 +15677,13 @@
         <v>642</v>
       </c>
       <c r="B643" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="C643">
         <v>134</v>
       </c>
       <c r="D643" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="E643" s="2" t="s">
         <v>268</v>
@@ -15679,13 +15697,13 @@
         <v>643</v>
       </c>
       <c r="B644" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="C644">
         <v>134</v>
       </c>
       <c r="D644" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="E644" s="2" t="s">
         <v>268</v>
@@ -15699,13 +15717,13 @@
         <v>644</v>
       </c>
       <c r="B645" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="C645">
         <v>134</v>
       </c>
       <c r="D645" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="E645" s="2" t="s">
         <v>268</v>
@@ -15719,13 +15737,13 @@
         <v>645</v>
       </c>
       <c r="B646" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="C646">
         <v>134</v>
       </c>
       <c r="D646" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="E646" s="2" t="s">
         <v>268</v>
@@ -15739,13 +15757,13 @@
         <v>646</v>
       </c>
       <c r="B647" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="C647">
         <v>134</v>
       </c>
       <c r="D647" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="E647" s="2" t="s">
         <v>268</v>
@@ -15759,13 +15777,13 @@
         <v>647</v>
       </c>
       <c r="B648" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
       <c r="C648">
         <v>134</v>
       </c>
       <c r="D648" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
       <c r="E648" s="2" t="s">
         <v>268</v>
@@ -15779,13 +15797,13 @@
         <v>648</v>
       </c>
       <c r="B649" t="s">
-        <v>733</v>
+        <v>707</v>
       </c>
       <c r="C649">
         <v>134</v>
       </c>
       <c r="D649" t="s">
-        <v>733</v>
+        <v>707</v>
       </c>
       <c r="E649" s="2" t="s">
         <v>268</v>
@@ -15799,13 +15817,13 @@
         <v>649</v>
       </c>
       <c r="B650" t="s">
-        <v>734</v>
+        <v>703</v>
       </c>
       <c r="C650">
         <v>134</v>
       </c>
       <c r="D650" t="s">
-        <v>734</v>
+        <v>703</v>
       </c>
       <c r="E650" s="2" t="s">
         <v>268</v>
@@ -15819,13 +15837,13 @@
         <v>650</v>
       </c>
       <c r="B651" t="s">
-        <v>735</v>
+        <v>705</v>
       </c>
       <c r="C651">
         <v>134</v>
       </c>
       <c r="D651" t="s">
-        <v>735</v>
+        <v>705</v>
       </c>
       <c r="E651" s="2" t="s">
         <v>268</v>
@@ -15839,13 +15857,13 @@
         <v>651</v>
       </c>
       <c r="B652" t="s">
-        <v>736</v>
+        <v>708</v>
       </c>
       <c r="C652">
         <v>134</v>
       </c>
       <c r="D652" t="s">
-        <v>736</v>
+        <v>708</v>
       </c>
       <c r="E652" s="2" t="s">
         <v>268</v>
@@ -15859,19 +15877,139 @@
         <v>652</v>
       </c>
       <c r="B653" t="s">
-        <v>737</v>
+        <v>709</v>
       </c>
       <c r="C653">
         <v>134</v>
       </c>
       <c r="D653" t="s">
-        <v>737</v>
+        <v>709</v>
       </c>
       <c r="E653" s="2" t="s">
         <v>268</v>
       </c>
       <c r="F653" s="2">
         <v>6</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A654">
+        <v>653</v>
+      </c>
+      <c r="B654" t="s">
+        <v>695</v>
+      </c>
+      <c r="C654">
+        <v>134</v>
+      </c>
+      <c r="D654" t="s">
+        <v>695</v>
+      </c>
+      <c r="E654" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F654" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A655">
+        <v>654</v>
+      </c>
+      <c r="B655" t="s">
+        <v>710</v>
+      </c>
+      <c r="C655">
+        <v>134</v>
+      </c>
+      <c r="D655" t="s">
+        <v>710</v>
+      </c>
+      <c r="E655" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F655" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A656">
+        <v>655</v>
+      </c>
+      <c r="B656" t="s">
+        <v>699</v>
+      </c>
+      <c r="C656">
+        <v>134</v>
+      </c>
+      <c r="D656" t="s">
+        <v>699</v>
+      </c>
+      <c r="E656" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F656" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A657">
+        <v>656</v>
+      </c>
+      <c r="B657" t="s">
+        <v>711</v>
+      </c>
+      <c r="C657">
+        <v>134</v>
+      </c>
+      <c r="D657" t="s">
+        <v>711</v>
+      </c>
+      <c r="E657" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F657" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A658">
+        <v>657</v>
+      </c>
+      <c r="B658" t="s">
+        <v>716</v>
+      </c>
+      <c r="C658">
+        <v>134</v>
+      </c>
+      <c r="D658" t="s">
+        <v>716</v>
+      </c>
+      <c r="E658" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F658" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A659">
+        <v>658</v>
+      </c>
+      <c r="B659" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="C659">
+        <v>134</v>
+      </c>
+      <c r="D659" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="E659" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F659" s="2">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
